--- a/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="kettle" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="R1C1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="199">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">Mokyu?</t>
   </si>
   <si>
-    <t xml:space="preserve">どうしたんだ、ケトル？こんな時間に。</t>
+    <t xml:space="preserve">どうしたんだ、ケトル？こんな夜遅くに。</t>
   </si>
   <si>
     <t xml:space="preserve">What's the matter, Kettle? At this hour?</t>
@@ -573,14 +573,14 @@
     <t xml:space="preserve">If what you’re saying is true, Kettle, and Issizzle is coming for the Magic Stone... then we must prepare immediately. We have to protect Quruitzia and Corgon.</t>
   </si>
   <si>
-    <t xml:space="preserve">またお前さんか…何がおかしい？</t>
+    <t xml:space="preserve">またお前さんか…何がおかしいんだ？</t>
   </si>
   <si>
     <t xml:space="preserve">And there you are again. What’s so amusing?</t>
   </si>
   <si>
     <t xml:space="preserve">その娘や竜の子の身の安全など問題ではない。
-この世界そのものが、終わりの兆しを見せているのだ。この者たちの存在によってな。</t>
+世界そのものが、終わりの兆しを見せているのだ。この者たちの存在によってな。</t>
   </si>
   <si>
     <t xml:space="preserve">The safety of the girl and the dragon child is of no matter.
@@ -593,12 +593,102 @@
     <t xml:space="preserve">What do you mean, Demitas?</t>
   </si>
   <si>
-    <t xml:space="preserve">「古きもの」たちは、この世界に災いと停滞しかもたらさない。彼らの強大な存在は、我々に意味を押し付け、我々から意味の創造を奪う。
+    <t xml:space="preserve">この者たち…「古きもの」たちは、世界に災いと停滞しかもたらさない。彼らの強大な存在は歪みを生み、その輝きは周りのすべてを巻き込んで焼き尽くす。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="0"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">beings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">... the Old Ones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> bring naught but calamity and stagnation unto the world. Their might is a source of distortion, and their brilliance doth consume all that surrounds them in flame.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">我々が築くべき意味は、彼らの理に容易く踏みにじられ、我々はただ、怯えながら運命を傍観する人形となるだろう。彼らが望もうとも、望まずともな。そのような世界に、如何なる発展が存在しよう？
 神々はそのために、人間への干渉を止め、この地上から去っていった。神々の子…神々の生み出した古き存在も、それに倣うべきなのだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">The Old Ones bring naught but calamity and stagnation upon this world. Their mighty existence imposeth meaning upon us and robbeth us of the creation of our own meaning.
-It is for this reason that the gods did cease their meddling with mankind and departed from the earth. The children of the gods—the old beings wrought by the gods—should follow their example as well.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">The meaning we strive to build is trampled underfoot by their laws, as though it were but dust. P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">owerless and trembling, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">we become mere puppets, doomed to watch fate unfold. Whether these beings will it or no, all the same.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">hat progress could ever take root in such a world?
+It is for this reason that the gods did cease their meddling with mankind and departed from the earth. The Old Ones... the children wrought by the gods should follow their example as well.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">…はぁ？</t>
@@ -607,12 +697,152 @@
     <t xml:space="preserve">...Eh?</t>
   </si>
   <si>
-    <t xml:space="preserve">…つまり、この世界に不幸しかもたらさぬ古き存在は、消えた方がいいということだ。
-ケトル、汝はイスシズルを殺すべきだった。そして、この娘も、竜の子も殺すべきなのだ。忘れるな、汝の甘さがもたらした災いを。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...To put it plainly, the Old Ones who bring naught but misfortune to this world should vanish.
-Kettle, thou shouldst have slain Issizle. And thou shouldst slay this girl and the dragon child as well. Forget not the calamity thy leniency hath wrought.</t>
+    <t xml:space="preserve">…つまり、イスシズルも、竜や魔女などといった迷惑な存在も、まとめて消えた方が世のためということだ。
+ケトルよ、汝の甘さがもたらした災いを忘れたか？汝はイスシズルを殺すべきだった。そして、この娘も、竜の子も殺すべきなのだ。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">In sooth, the world hath no need for Issizle, nor for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">a dragon child </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">a witch. B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">etter they be gone and forgotten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">ast thou forgotten the calamity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">thy mercy hath wrought</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">, Kettle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Thou shouldst have slain Issizle. And thou shouldst slay this girl and the dragon child as well.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">おいおい、ちょっと待ってくれ。聞き捨てならんな。
@@ -796,7 +1026,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -856,6 +1086,32 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -905,7 +1161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -955,6 +1211,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1156,12 +1420,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K115" activeCellId="0" sqref="K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,7 +1483,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="1" t="n">
         <f aca="false">MAX(I4:I1048576)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2329,40 +2593,40 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G114" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I114" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="J114" s="12" t="s">
+      <c r="J114" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="K114" s="9" t="s">
+      <c r="K114" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G115" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I115" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G116" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I115" s="1" t="n">
+      <c r="I116" s="1" t="n">
         <v>61</v>
-      </c>
-      <c r="J115" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I116" s="1" t="n">
-        <v>62</v>
       </c>
       <c r="J116" s="12" t="s">
         <v>151</v>
@@ -2371,48 +2635,48 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G117" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I117" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="K117" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G118" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I117" s="1" t="n">
+      <c r="I118" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="J117" s="7" t="s">
+      <c r="J118" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K118" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E118" s="6"/>
-      <c r="F118" s="10"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E119" s="6"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="6" t="s">
+      <c r="J119" s="7"/>
+      <c r="K119" s="4"/>
+    </row>
+    <row r="120" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="6"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I119" s="1" t="n">
+      <c r="I120" s="1" t="n">
         <v>64</v>
-      </c>
-      <c r="J119" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="K119" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G120" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I120" s="1" t="n">
-        <v>65</v>
       </c>
       <c r="J120" s="12" t="s">
         <v>155</v>
@@ -2421,64 +2685,71 @@
         <v>156</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G121" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="J121" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J121" s="12" t="s">
         <v>157</v>
       </c>
       <c r="K121" s="9" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G122" s="6" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="J122" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J122" s="7" t="s">
         <v>159</v>
       </c>
       <c r="K122" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E123" s="6" t="s">
+    <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G123" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F124" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="J123" s="12"/>
-      <c r="K123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G124" s="6" t="s">
+      <c r="J124" s="12"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G125" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I124" s="1" t="n">
+      <c r="I125" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="K124" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E125" s="6"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="6"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="6"/>
+      <c r="J125" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E126" s="6"/>
@@ -2488,35 +2759,28 @@
       <c r="K126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>163</v>
-      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="6"/>
       <c r="J127" s="12"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G128" s="6" t="s">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J128" s="12"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G129" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I128" s="1" t="n">
+      <c r="I129" s="1" t="n">
         <v>69</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="K128" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I129" s="1" t="n">
-        <v>70</v>
       </c>
       <c r="J129" s="12" t="s">
         <v>166</v>
@@ -2527,10 +2791,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G130" s="6" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J130" s="12" t="s">
         <v>168</v>
@@ -2539,12 +2803,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G131" s="6" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J131" s="12" t="s">
         <v>170</v>
@@ -2553,26 +2817,26 @@
         <v>171</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G132" s="6" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J132" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="K132" s="6" t="s">
+      <c r="K132" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G133" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J133" s="12" t="s">
         <v>174</v>
@@ -2581,12 +2845,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G134" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J134" s="12" t="s">
         <v>176</v>
@@ -2595,93 +2859,93 @@
         <v>177</v>
       </c>
     </row>
-    <row r="135" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G135" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I135" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K135" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I135" s="1" t="n">
+      <c r="I136" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="J135" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="K135" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G136" s="6" t="s">
+      <c r="J136" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K136" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G137" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I136" s="1" t="n">
+      <c r="I137" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="K136" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G137" s="6" t="s">
+      <c r="J137" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I137" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="J137" s="12" t="s">
+      <c r="K137" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G138" s="6" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K138" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G139" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I139" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G140" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I140" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="J139" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K139" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="1" t="n">
+      <c r="J140" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I141" s="1" t="n">
         <v>81</v>
-      </c>
-      <c r="J140" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="K140" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="141" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G141" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I141" s="1" t="n">
-        <v>82</v>
       </c>
       <c r="J141" s="12" t="s">
         <v>187</v>
@@ -2695,7 +2959,7 @@
         <v>88</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J142" s="12" t="s">
         <v>189</v>
@@ -2704,26 +2968,26 @@
         <v>190</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G143" s="6" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J143" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="K143" s="6" t="s">
+      <c r="K143" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G144" s="6" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J144" s="12" t="s">
         <v>193</v>
@@ -2732,12 +2996,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G145" s="6" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J145" s="12" t="s">
         <v>195</v>
@@ -2746,18 +3010,32 @@
         <v>196</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J146" s="12"/>
-      <c r="K146" s="6"/>
+    <row r="146" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G146" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I146" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="J146" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E147" s="6"/>
-      <c r="F147" s="10"/>
-      <c r="J147" s="7"/>
+      <c r="J147" s="12"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="1" t="s">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E148" s="6"/>
+      <c r="F148" s="10"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="6"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E150" s="1" t="s">
         <v>76</v>
       </c>
     </row>

--- a/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
@@ -709,7 +709,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">In sooth, the world hath no need for Issizle, nor for </t>
+      <t xml:space="preserve">In sooth, the world hath no need for Issizzle, nor for </t>
     </r>
     <r>
       <rPr>
@@ -1161,7 +1161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1211,10 +1211,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1423,9 +1419,9 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K115" activeCellId="0" sqref="K115"/>
+      <selection pane="bottomLeft" activeCell="K117" activeCellId="0" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2600,7 +2596,7 @@
       <c r="I114" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="J114" s="13" t="s">
+      <c r="J114" s="5" t="s">
         <v>147</v>
       </c>
       <c r="K114" s="7" t="s">
@@ -2614,10 +2610,10 @@
       <c r="I115" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="J115" s="13" t="s">
+      <c r="J115" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2645,7 +2641,7 @@
       <c r="J117" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" s="13" t="s">
         <v>154</v>
       </c>
     </row>

--- a/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="386">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -1017,6 +1017,842 @@
     <t xml:space="preserve">Heh, to think it took us all night to reach such an obvious conclusion.
 #pc, you’ve been listening, haven’t you? It looks like things are going to get pretty busy from now on.</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg_labo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 古城 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Old Castle -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ソリン、君なのか？　最後に会ってから、どれほどの年月が過ぎただろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Sorin, is that you? How many years have passed since we last met.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私をまだ、覚えているかい？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you still remember me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issizzle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（聞き取れない古代語）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ancient words, unintelligible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">驚いた。それでは、まだ君は…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm surprised. Then you still...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">待っていた？　…私を？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You waited? ...For me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふん、こんなところか。この姿をとるのは久しぶりだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hmph, close enough. It has been a long time since I took this shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうです、これで少しは喋りやすくなりましたか、師よ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well then, does this make it easier to speak, Master?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安心したよ。君がまだ、昔の君自身を覚えていることに、ソリン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm relieved, Sorin—relieved that you still remember who you once were.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それは皮肉な言葉です。昔の姿を覚えていようが、忘れようが、あなたの期待するような人間らしさなど、もともと僕は持っていなかったのですから。
+…まあいいでしょう。二百年ぶりの再会に、水を差すつもりはありません。昔のように、この仄暗い部屋で語り合おうではありませんか…「魔石」について。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How ironic. Whether I remember this old face or not, I never possessed the humanity you hoped for in the first place.
+...No matter. I’ve no wish to sour a reunion two centuries in the making. Let us talk here, as we once did in this dusky room... of the very crystal we call the Magic Stone.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どうやら、私が君に会いに来ることも、その理由も、君にはお見通しだったみたいだね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It seems you foresaw that I would come—and why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…鋼鉄竜「コルゴン」。かつてパルミアの王より魔石を授かった偉大なる竜。竜殺し「トラン」によりこの獣が退治されたのは、二十年ほど前のことです。しかし、愚かなるトランは魔石を持たぬまま帰還し、その所在は闇に包まれていました。
+…つい先日、あなた達がコルゴンの忘れ形見を見つけるまではね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...The Steel Dragon, “Corgon.” Once, he received a Magic Stone from the King of Palmia. The dragonslayer “Thorran” felled that beast some twenty years ago. Yet the fool returned without the Stone, and its whereabouts sank into darkness. 
+...Until quite recently, when you found Corgon’s last offspring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">竜の子の噂を耳にしたその日のうちには、僕は彼の居場所を見つけていました。容易いことです。僕はすぐにでも竜の子を殺し、魔石を奪うこともできた。しかし、竜の子の傍らに、あなたの姿を見とめたのです。
+そこで、この城であなたを待つことにしました。あなたなら、必ずやって来ると、わかっていたのでね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The very day the rumor reached me, I found the whelp’s refuge. It would have been easy to kill him and take the Stone at once. But I saw you at the child’s side.
+So I chose to wait for you in this castle. I knew you would come.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さあ、聞かせて下さい、師よ。あなたはあの竜の子を…竜の体にある魔石をどうするつもりですか？
+あなたは僕の計画に同意したはずです。もう何百年も前のことですがね。その間に何があって心変わりしたのですか？　というのも、こうして竜の子を連れずに僕を訪ねたということは、これ以上僕に協力するつもりはないのでしょうから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now, tell me, Master—what do you intend to do with that dragon child... and with the Stone within the dragon’s body?
+You once agreed to my plan—granted, that was centuries ago. What changed your heart in the meantime? For you came to me without the whelp in tow, which means you have no intention of aiding me further.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コルゴンを渡すことができないというのは、君の言う通りだ。その理由を話す前に、一つ聞かせてくれ、ソリン。君はいまだに魔石の研究を続けているのか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’re right that I cannot hand over Corgon. Before I say why, answer me this, Sorin. Are you still pursuing your research into the Magic Stone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、当たり前でしょう。闇の奇形などという忌み名を持つ臭い体に魂を縛り、朽ちた古城の陰鬱な暗闇で生き続ける理由が、他にあるとでも思っているのですか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh. But of course. What other reason have I to bind my soul to this stinking flesh they call “dark abomination”—and linger in the gloom of a rotting old castle?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僕は魔石の秘密を解明しなければならない。
+…神々が去り、この世界から神秘が失われつつあります。「古きもの」全てが、緩慢な死を迎えようとしているのです。それはつまり、魔法の死を意味します。
+ええ、僕には魔石が必要ですとも。この世界を今のまま存続させるには、魔石の力によって、神々を再び地上に呼び戻すしかないのだから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I must unravel the Stone’s secret.
+ ...The gods have departed, and mystery is draining from the world. All “old beings” approach a slow death. Which is to say, magic itself will die.
+Yes, I have need of the Stone. To preserve the world as it is, there is but one way: to use the Stone’s power and call the gods back to earth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたも知っての通り、世界から今や、「古きもの」達、そして神秘の根源である魔法が、静かに消え去ろうとしています。
+それが百年後か、千年後か、僕にはわかりません。しかし、神々が地上から姿を消したその時より、それは我々に定められた逃れられぬ運命なのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As you know, the “old beings,” and the very source of mystery—magic itself—are fading from the world.
+Whether in a hundred years or a thousand, I cannot say. But from the night the gods withdrew from the earth, an inescapable fate was set upon us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">その通り…このままでは、神話はやがて年老いた語り部の寝物語となり、精霊は絵本の挿絵でしか見られなくなるだろう。
+だけど、こう考えたことはあるかい？それは、この世界が本来の姿に戻るだけかもしれない、と。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just so... Eventually, myth will become the bedtime tale of an old storyteller, and spirits will live only in picture books.
+But have you considered this: perhaps the world is merely returning to its native shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">本来の、退屈で、野蛮で、生きる価値すらない世界にね。
+…その兆しは既に見え始めています。かつてシエラ・テールを席巻した古代エウダーナは昔日の勢いを失い、東では科学を象徴とする新王国イエルが台頭しつつあります。魔法はただの学問へと貶められ、古き種族の多くは、人間により滅びか隷属の選択を余儀なくされるでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its native shape—dull, brutish, scarcely worth living in.
+...The signs are plain already. The ancient Eulderna that once swept through Sierre Terre has lost its vigor. In the east, the New Kingdom of Yel rises, hoisting science as its banner. Magic is being demoted to “mere scholarship,” and many elder races will be driven by humans to extinction or chains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ええ、人の時代が到来しつつあります。そして、この星の歴史を紐解けば明らかでしょう…エイス・テールやレム・イドでそうあったように、人間は慌ただしく滅びの道を辿るのです。その途中で自分たちが奪い壊していくものの価値すら知ることなくね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, the age of man is upon us. And the history of this planet makes it clear: as on Eyth Terre and Rem-Ido, humankind hurries along the road to ruin—never knowing the worth of what they seize and destory along the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どんな文明でも、終わりは避けられない。滅ぶものがあれば、新たに芽吹くものもある。それは、私たちの善悪を超えた摂理だとは思わないかい、ソリン？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every civilization meets its end. Where some wither, others sprout anew. Don’t you think it’s a law that lies beyond our small measures of good and evil, Sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、問答は結構です。回りくどい言い方はやめましょう。
+人間の盛衰、善悪…そう、神々の思惑だろうと、僕の知ったことじゃない。僕はただ、この力を失うのが嫌なのです。世界をかしずかせたこの魔術こそが、僕のすべてです。それを奪われるなど、到底容認できません。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enough riddling. I will speak plain.
+The rise and fall of men, good and ill—even the designs of the gods—none of it concerns me. I simply refuse to lose this power. This sorcery that once bent the world to my will is everything I am. To be robbed of it is intolerable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…師よ、二百年前、僕を殺さなかったのは何故ですか？　あなたも同じ船に乗ったものと、僕は思っていたのですがね。
+まさかこの城に、二百年前あなたが果たさなかったことを、果たしに来たのですか？　もっとも、今では僕の力は遥かに強大になっています。あなたよりも、ずっとね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Master, why did you spare me two hundred years ago? I thought we sailed the same ship.
+Or have you come today to finish what you failed to do then? Mind you, my power has grown—far beyond yours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原初の時代に神々が創ったとされる魔石…その力を解明すれば、神々を地上に呼び戻し、世界の「退化」を阻止できます。
+…僕は竜の子を殺し、魔石を手に入れる。あなたが止めようとも、無駄なことです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Magic Stones, said to have been forged by the gods in the ancient age—if we grasp their full power, we can open the gods’ gates and summon them back, halting the world’s “degeneration.”
+...I will kill the dragon child and take the Stone. Try to stop me if you like—it will avail you nothing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン、君は一つ勘違いをしている。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin... you are mistaken about one thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勘違い…？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistaken...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君の魔石の研究は、既に完成しているんだ。君はおそらく、魔石の力を「すべて引き出している」。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your work on the Stone is already complete. I believe you’ve already “drawn out all it has to give.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">研究が完成？　戯言を言わないで下さい。魔石の力はこんなものでは…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete? Don’t be absurd. The Stone’s power is far beyond—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">君は既に魔石の力を手にしている。だけど…そう、君も気づいているように、残念だが、その魔石には…いや、他の二つの魔石を集めたところで、君の求める力には遠く及ばないだろう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You do hold the Stone’s power. But—as you yourself must suspect—alas, even if you gathered the other two Stones, the strength you seek would still lie far beyond your reach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ、何を言うかと思えば…師よ、あなたに何がわかるのです？　魔石を持たないあなたに何が？
+確かに、あなたは奇妙なほど魔石に関する知識を持っていました。だが、それも昔のこと。僕が二百年の間に学んだ知識には遠く及びません。
+魔石の秘められた力は、神々の次元の扉を開き、神々を地上に呼び戻す…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hah. And what would you know, Master—without a Stone?
+True, you once possessed uncanny lore about them. But that was long ago. You are far behind what I have learned in two centuries.
+The Stone’s hidden might will open the gods’ threshold and call them down—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…それが本物の魔石なら、ね。だけど、君が持っているのは、まがい物の魔石だ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...If it were a true Magic Stone, yes. But what you hold is a counterfeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何を馬鹿な…ふふっ、まさかそんな戯言をいうために、わざわざ僕の元にやって来たのではないでしょうね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonsense... Heh—surely you didn’t come all this way just to peddle such drivel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ソリン、その魔石を作ったのは、私なんだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorin, I made this Stone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">師よ、あなたはいつから、そんなつまらない冗談を…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master, since when did you stoop to such dreary jokes...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信じられないか…無理もない。
+では、この瞳を見るといい、ソリン。私の眼窩に刻まれた、永遠の呪いを。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t blame you for doubting.
+Then look into this eye, Sorin—see the curse etched in my socket, the curse without end. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">…！！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kettle_eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《アーラの石晶》の言い伝えを、君なら耳にしたことがあるだろう。これが本物の魔石なんだ、ソリン。
+君とコルゴンが持つ魔石は、遠い昔に、この石晶に似せて私が作ったできそこないに過ぎない。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">You must have heard the tale of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Aura’s Stone-Crystal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">. This is the true Magic Stone, Sorin.
+The Stones you and Corgon bear are failures I crafted long ago, imitations made to resemble this crystal.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">馬鹿な…《アーラの石晶》…永遠の瞳だと…？　そんなもの神話の…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Ridiculous... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Aura’s Stone-Crystal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">... the Eternal Eye...? That’s a myth—</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">神話の……　本…当…なのか…？　では…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A myth... is it... real...? Then... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふっ…ふふふ…僕としたことが…そうか、そういうことか…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hah... heh heh... To think I missed it... So—that’s how it is...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">「最初の錬金術師」…。そうだ、あなたこそが、すべての始まりだったんだ。
+この時代に人間が産声を上げる遥か昔から、あなたは生きていた。いや、死ぬことができなかったとでもいうべきでしょう。今わかりましたよ。あなたの瞳の秘密も、あなたが私を殺さなかった理由も。
+ふっ、座ってください、師よ。僕達にはまだ、語るべきことがたくさんあるようです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“The First Alchemist.” Of course—you were the beginning of it all.
+Long before mankind in this age ever drew its first breath, you lived. No, perhaps it is truer to say you could not die. Now I understand—both the secret of your eye and the reason you did not kill me.
+Come, sit, Master. It seems we still have much to speak of. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">では、あの伝承は真実だったのですね。
+…まだ森の精霊であった頃の名はアーラ。
+人の男に恋し、みずから石の館に囚われた彼女は、やがて大空に焦がれる雛と共に羽ばたき、女神へと昇華した。そう、ルルウィ誕生の神話です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then the tale was true, was it not?
+...In the days when she was yet a spirit of the forest, her name was Aura.
+She fell in love with a mortal man and made herself prisoner in a house of stone. In time, she took wing with a fledgling that yearned for the sky and was exalted as a goddess. Yes, the birth of Lulwy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有名な神話ですが、この人間の男がその後たどった運命を記す書物は、ほとんど残っていません。
+一説によれば、アーラ…いや、ルルウィは、過酷な運命を男に与えたといいます。人の心に身を預けてしまった己への戒めとして、二度と自分の姿を見れぬよう男の両目を奪い、不死の呪いをかけたのです。人の男がこれからも自分を愛し、それ故に、永遠に苦しみ続けることを知っていたから。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a famous myth, but few books speak of the mortal man’s fate thereafter.
+One account says that Aura—no, Lulwy—laid a cruel doom upon him. As a chastisement for having entrusted herself to a human heart, she took both his eyes so he could never behold her again, and set upon him the curse of undying. She knew the man would go on loving her—and therefore suffer, forever.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…女神ルルウィが誕生したのは上古の時代、あるいは「はじまりの時代」と呼ばれる第二紀のこと。あれから一体、どれだけの年月が過ぎたのですか？　数千万年、いや、数億年…？
+ふふ、なんということだ…師よ、あなたは、この世界に散りばめられた無数の秘密に、どれほど関わってきたのだろう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Lulwy’s ascent belongs to elder days—some call it the “Age of Beginnings,” the Second Era. How many years have passed since then? Tens of millions—hundreds of millions?
+Heh, what a thing... Master, to how many of the world’s scattered secrets have you been tied?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人に羨まれるような経験でないのだけは確かだよ。
+その伝承も、おそらく私自身が記したものに違いない。正確に伝わってきたかどうかは別としてね。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only this is certain, they are not experiences anyone should envy.
+That legend, too—I likely wrote it myself, though I doubt it has reached you without error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そう、女神になった彼女を、あの森で…「偶然」見かけたんだ。
+彼女がこちらを振り向いた次の瞬間、私の瞳にはこの石晶が刻まれていた。そこには、感情も、言葉も、何もなかった。あれから、彼女の声を求めて永遠の暗闇を彷徨ったが、彼女が私の前に現れることは二度となかった。
+この瞳は、罰なんてたいそうなものじゃない。ただの彼女の気まぐれさ。女神となったルルウィにとって、私はもう、風に舞う塵ほどの、目にも留まらぬ存在に過ぎないんだよ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, I “chanced” to see her in that forest, already a goddess.
+In the instant she turned her gaze toward me, this crystal was etched into my socket. There was no feeling in it, no word, nothing at all. Ever since, I have wandered a night without end, seeking her voice—but she never came before me again.
+This eye is no grand punishment: it is merely her whim. To Lulwy, now a goddess, I am no more than a mote on the wind, beneath notice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…それでも、この瞳は、私にとってルルウィとの唯一の接点だった。この瞳の秘密を解き明かせば、もう一度彼女の関心を買うことができるかもしれない、そんな淡い望みを胸に、私は昼夜を問わず石の謎を追い、その熱はやがて私を石の模倣へと駆り立てた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Even so, this eye was my only thread to her. I nursed the faint hope that if I unraveled its secret, I might win her notice once more. By day and night I pursued the riddle of the stone, and in time that fervor drove me to imitation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私はいつしか偉大なる錬金術師と呼ばれるようになっていた。しかし、人の知恵は神の奇跡に遠く及ばない。私が生み出した無数の魔石は、どれ一つとして、この瞳のごとき輝きを持つことはなかった。
+…やがて私は模倣を断念し、偽物の魔石も歴史の塵に埋もれていった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I rose, before I knew it, to be counted among the great alchemists. But human wit does not reach the miracle of the gods. Not one of the countless Stones I forged bore the radiance of this eye. 
+...At last I abandoned the mimicry, and the counterfeit Stones sank with the dust of history.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…しかし、あなたの生み出した三片の魔石は、長い時の試練に耐え、今この時代で再び見つかった。そうですね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And yet, the three shards you created withstood the trial of time, and now stand revealed in this era. Is that not so?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…ああ、その通りだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Ah. It is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたの弟子が魔石を手に入れ、その力の虜となると、あなたは弟子の居城を訪れました。弟子思いの優しいあなたは、僕の魂を救うために、僕を殺しに来たのです。
+しかし…僕の計画を知った時、あなたの中に葛藤が生じました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When your disciple gained a Magic Stone and fell captive to its power, you came to his keep. Kind, solicitous Master that you are, you came to kill me—to save my soul.
+But... when you learned of my plan, a struggle took root in you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">僕の強大な魔力と魔石が結びつけば、あるいは、神々を本当に地上に呼び戻せるかもしれないと、あなたは思ったのです。
+ルルウィと再会し、その瞳にかけられた呪いの意味を知ることができるかもしれないと。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You thought that if my vast sorcery were wed to the Stone, perhaps the gods truly could be called back to earth.
+Perhaps you could be reunited with Lulwy, and learn the meaning of the curse laid upon your eye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…この瞳の意味か。それさえも、もうどうでもいいのかもしれない。
+ソリン、私はただ、もう一度ルルウィに会いたかったんだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...The meaning of this eye. Even that, I think, may no longer matter. 
+Sorin, I only wished to see Lulwy once more. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふふ、ふふふ…師よ、どうやら、僕とあなたにも、ようやく共通点が見つかったようですね。
+あなたの胸の奥には、理性も道徳も鎮められない暗い炎が燻っているんです。僕と同じように、あなたにもあるのです、例えこの世界がどのように変わってしまおうとも、手放せないほど強く望むものが。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh... heh heh... Master, it seems at last we have found our likeness.
+There is a dark fire banked in your breast that neither reason nor morality can cool. As with me, there is something you desire so fiercely you cannot let it go—no matter how the world might be changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…そして、あなたの暗い情熱の犠牲になったのが、この僕の体というわけか。
+穢れた化け物に身をやつしてまで、偽物の魔石を追い求めていたとは、とんだ笑い草です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And the victim of that dark ardor was this body of mine, was it?
+To debase yourself into a befouled abomination in pursuit of a counterfeit Stone—what a jest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…すまない、ソリン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...I am sorry, Sorin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いいえ、師よ。
+…皮肉なものです。この不浄の体が、僕のみじめな命を永らえさせる以外に役にたたなかったというわけでもないのだから。
+いや、魔石の研究の道が絶たれた今、むしろこの体で得た知識こそが、僕の最後の希望となるかもしれない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, Master.
+...Irony has its uses. This unclean body did not serve only to prolong my wretched life.
+Now that the path of Stone-lore is cut off, the knowledge won by this flesh may prove my last hope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それはどういうことだい、ソリン？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What do you mean, Sorin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死者の世界には、生者の世界では囁かれない秘密が存在するのですよ。
+その前に一つ確認しましょう。魔石が偽物だと判明した今、竜の子の魔石を僕が手に入れる意味はなくなりました。「ほとんど」ね。というのも、もう一つの魔石というのは、僕にとっていまだに興味のそそる代物だからです。
+そして、その気になれば魔石を奪う力を持っている僕は、少なくともまだ、交渉のカードを持っていると考えています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are secrets in the realm of the dead that are never whispered among the living.
+Before that—one point to settle. Now that the Stones are shown to be false, there is no sense in my taking the dragon child’s Stone. “Almost” no sense. For the other Stone still piques my interest.
+And since I have the power to seize the Stone if I choose, I think I still hold a card for negotiation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">つまり、何か私に頼み事をしたいと、君は言いたいんだね？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, you’re saying you want to ask me for a favor, is that it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あなたが話のわかる人で助かりますよ。なに、簡単なお使いです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m glad you’re a man of understanding. It’s a simple errand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この古城から少し離れた沼地に、誰も寄り付かない洞窟があります。「死者の洞窟」と呼ばれるその洞窟の奥には、死者に守られ、しかし死者が決して近づくことのできない「淀み」があるのです。
+…この瓶をあなたに渡しましょう。
+あなたには、この瓶に入っている液体の雫を一滴、この「淀み」に垂らしてきてほしいのです。
+…どうです、簡単でしょう？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short way from this castle, in the marsh, there is a cave shunned by all. They call it the “Crypt of the Damned.” In its depths lies a “pool of stagnation,” warded by the dead—yet one the dead themselves can never approach.
+...Take this vial.
+I want you to let a single drop of the liquid within fall into that pool. ...There, simple enough?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もちろん、死者の洞窟の深層に降りるには、それなりの戦力が必要です。あなたと一緒にいた冒険者に相談するといいでしょう。
+ふっ、その怪訝な顔も無理はありませんが…これ以上の秘密を教えるわけにはいきません。
+その滴の効果が出るのは数百年後。少なくとも、あなたの仲間に危害が及ぶことは絶対にないと約束しましょう。竜の子の命と引き換えだと思えば、割のいい取引だとは思いませんか、師よ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of course, to descend to the deep of the Crypt of the Damned you’ll need some strength. Consult the adventurer who was with you.
+Heh, that look of yours is natural—but I can tell you no more of the secret.
+The drop’s effect will not ripen for centuries. I swear no harm will come to your companions. Think of it as the price for the dragon child’s life—doesn’t that strike you as a fair bargain, Master?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">quest_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">into_darkness4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">あ…ケトルだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Look, Kettle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">おかえりなさい、ケトル！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome back, Kettle!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ただいま、クルイツゥア、コルゴン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I’m home, Quruitzia, Corgon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浮かない顔…どうしたの？　やっぱり…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You look troubled... Did it go badly, after all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いや、悪い報せではないんだ。ただ…
+そうだね、まずは、皆を呼んで来てくれるかい、クルイツゥア？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, it isn’t bad news. It’s just...
+Well, can you gather everyone first, Quruitzia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もきゅ…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokyu...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…というわけだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...and that’s how it is.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なるほど、コルゴンの安全と引き換えに、その「淀み」とやらに一滴の雫を垂らしてこいというのか。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I see. So, in exchange for Corgon’s safety, we’re to drip a single drop from that vial into this so-called “pool of stagnation.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふむ…もちろん、洞窟の探索には#pcの助けが必要だろうが、雫を垂らしたからといって、何か危険があるわけでもないようだし、悪くない取引ではないだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... Of course we’d need #pc’s help to explore the cave, but if there’s no danger in letting the drop fall, it doesn’t sound like a poor bargain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駄目です。その瓶の液体を「淀み」に混ぜるなんて、絶対にいけません！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. We mustn’t. Mixing what’s in that vial with the “pool of stagnation” is absolutely a bad idea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファリスさん、しかし…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lady Farris, but...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いえ、聞いて下さい、ロイテル様。この取引からは邪悪なものを感じます。
+死者の洞窟については、とある言い伝えが残っているのです。
+その昔、洞窟には「不浄なる者」が住み、血も凍るような恐ろしい儀式を繰り返していました。地上を、そして天界をも脅かしたその異形は、神々により滅ぼされました。しかし、不浄なる者の血肉は洞窟の奥底に溶け落ち、決して乾かぬ黒い淀みを成したのです。
+ロイテル様、「淀み」は定命の存在が触れてはならないものなのです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please, hear me out, Lord Loytel. There is wickedness coiled within this deal.
+There is an old legend about the Crypt of the Damned.
+Long ago, “The Impure” dwelled there and performed rites so dreadful they chilled the blood. That abomination threatened the earth—and even the divine realm—until the gods destroyed it. Yet the creature’s flesh and blood melted into the deep of the cave and formed a black pool that never dries.
+Lord Loytel, the “pool” is not for mortal hands to touch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">なるほど、恐ろしい話だ…いや、そうか、読めてきたぞ。
+淀みに垂らすこの瓶の一滴は、数百年後に芽吹く邪悪なのだ。神々も看過できないほどの邪悪…神々を再び地上に呼び戻すための囮餌。きっと、そんなところだろう。
+確かに、イスシズルの頼みを聞けば、後の世にとんでもない呪物を残すことになるな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fearsome tale indeed... But wait, I think I see it now.
+The single drop we’re to cast into that pool is a seed of evil that will sprout centuries hence. Evil so great the gods themselves cannot ignore it... bait to lure them back to the earth. That must be it.
+Truly, if we accept Issizzle’s request, we’ll be leaving behind a monstrous curse for a later age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…といっても、ケトルの話を聞く限り、イスシズルは強大すぎる魔術師だ。この取引を断れば、我々だけで、奴から竜のおチビちゃんを守れるだろうか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...And yet, by Kettle’s account, Issizzle is a sorcerer of terrifying reach. If we refuse this bargain, can we protect the little dragon from him with our strength alone?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いえ、取引を拒む必要はありません。私に良いアイデアがあるのです、ロイテル様。
+この瓶を代わりに持っていきましょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, the bargain need not be refused. I have an idea, Lord Loytel.
+We’ll take this vial instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">代わりに？　何だ、この瓶は？　確かにイスシズルに渡された瓶とよく似ているが…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Instead”? What is this vial? It does look very much like the one Issizzle gave us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">む…しかし、とても清らかな香りがするぞ。これは聖水の一種か？
+そうか、聖なる水によって、「淀み」を浄化しようということだな。さすがはファリスさん…しかしこんな代物を一体どこで？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hm... but it has a most pristine scent. Is this some manner of holy water?
+Right, you mean to purify the pool with a sacred drop. As expected of you, Lady Farris... though where in the world did you get such a thing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">それにしても、心地の良い匂いだ。この香り…とても清々しくて、爽やかで、まるで…そう、まるで洗いたての…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In any case, it smells wonderful. So clean, so fresh, almost like... well, like newly washed...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">もしかしてこれは…い、いや、中身を聞くなんて野暮だな。妙案だと思うよ、ファリスさん。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps I shouldn’t ask what it is. Better not to be boorish. In any event, it’s a clever plan, Lady Farris. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">少なくとも、この瓶の一滴が邪神をこの世に呼び戻すことはないでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the very least, a drop from this vial will not call a dark god back into the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そ…そうだな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-right. Quite so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お、おほん…ということだ、#pcよ。
+この決断は私には荷が重い。お前に任せよう。
+死者の洞窟に赴き、「淀み」を見つけるんだ。そこでイスシズルに渡されたこの瓶を使うか、あるいはファリスさんに渡された「聖水」を使うか…それはお前次第だ、よく考えてくれ。
+…安心しろ、私もついていってやる。お前だけに責任を追わせるのは酷だからな。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-hem... So then, #pc.
+This decision is too weighty for me alone; I leave it to you.
+Go to the Crypt of the Damned and find the “pool of stagnation.” There, you may use the vial Issizzle entrusted to us, or the “holy water” Lady Farris provided... the choice is yours. Think carefully.
+...You won’t go alone—I’ll come as well. It would be cruel to place such a burden entirely on your shoulders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addKeyItem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_sorin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potion_farris</t>
+  </si>
 </sst>
 </file>
 
@@ -1026,7 +1862,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1112,6 +1948,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1161,7 +2004,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1216,6 +2059,30 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1416,12 +2283,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:IX329"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K117" activeCellId="0" sqref="K117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J180" activeCellId="0" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,7 +2346,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I2" s="1" t="n">
         <f aca="false">MAX(I4:I1048576)</f>
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,6 +3902,3523 @@
         <v>76</v>
       </c>
     </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E155" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J155" s="14"/>
+      <c r="K155" s="14"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E157" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F157" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="1"/>
+      <c r="Z157" s="1"/>
+      <c r="AA157" s="1"/>
+      <c r="AB157" s="1"/>
+      <c r="AC157" s="1"/>
+      <c r="AD157" s="1"/>
+      <c r="AE157" s="1"/>
+      <c r="AF157" s="1"/>
+      <c r="AG157" s="1"/>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+      <c r="AJ157" s="1"/>
+      <c r="AK157" s="1"/>
+      <c r="AL157" s="1"/>
+      <c r="AM157" s="1"/>
+      <c r="AN157" s="1"/>
+      <c r="AO157" s="1"/>
+      <c r="AP157" s="1"/>
+      <c r="AQ157" s="1"/>
+      <c r="AR157" s="1"/>
+      <c r="AS157" s="1"/>
+      <c r="AT157" s="1"/>
+      <c r="AU157" s="1"/>
+      <c r="AV157" s="1"/>
+      <c r="AW157" s="1"/>
+      <c r="AX157" s="1"/>
+      <c r="AY157" s="1"/>
+      <c r="AZ157" s="1"/>
+      <c r="BA157" s="1"/>
+      <c r="BB157" s="1"/>
+      <c r="BC157" s="1"/>
+      <c r="BD157" s="1"/>
+      <c r="BE157" s="1"/>
+      <c r="BF157" s="1"/>
+      <c r="BG157" s="1"/>
+      <c r="BH157" s="1"/>
+      <c r="BI157" s="1"/>
+      <c r="BJ157" s="1"/>
+      <c r="BK157" s="1"/>
+      <c r="BL157" s="1"/>
+      <c r="BM157" s="1"/>
+      <c r="BN157" s="1"/>
+      <c r="BO157" s="1"/>
+      <c r="BP157" s="1"/>
+      <c r="BQ157" s="1"/>
+      <c r="BR157" s="1"/>
+      <c r="BS157" s="1"/>
+      <c r="BT157" s="1"/>
+      <c r="BU157" s="1"/>
+      <c r="BV157" s="1"/>
+      <c r="BW157" s="1"/>
+      <c r="BX157" s="1"/>
+      <c r="BY157" s="1"/>
+      <c r="BZ157" s="1"/>
+      <c r="CA157" s="1"/>
+      <c r="CB157" s="1"/>
+      <c r="CC157" s="1"/>
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+      <c r="CM157" s="1"/>
+      <c r="CN157" s="1"/>
+      <c r="CO157" s="1"/>
+      <c r="CP157" s="1"/>
+      <c r="CQ157" s="1"/>
+      <c r="CR157" s="1"/>
+      <c r="CS157" s="1"/>
+      <c r="CT157" s="1"/>
+      <c r="CU157" s="1"/>
+      <c r="CV157" s="1"/>
+      <c r="CW157" s="1"/>
+      <c r="CX157" s="1"/>
+      <c r="CY157" s="1"/>
+      <c r="CZ157" s="1"/>
+      <c r="DA157" s="1"/>
+      <c r="DB157" s="1"/>
+      <c r="DC157" s="1"/>
+      <c r="DD157" s="1"/>
+      <c r="DE157" s="1"/>
+      <c r="DF157" s="1"/>
+      <c r="DG157" s="1"/>
+      <c r="DH157" s="1"/>
+      <c r="DI157" s="1"/>
+      <c r="DJ157" s="1"/>
+      <c r="DK157" s="1"/>
+      <c r="DL157" s="1"/>
+      <c r="DM157" s="1"/>
+      <c r="DN157" s="1"/>
+      <c r="DO157" s="1"/>
+      <c r="DP157" s="1"/>
+      <c r="DQ157" s="1"/>
+      <c r="DR157" s="1"/>
+      <c r="DS157" s="1"/>
+      <c r="DT157" s="1"/>
+      <c r="DU157" s="1"/>
+      <c r="DV157" s="1"/>
+      <c r="DW157" s="1"/>
+      <c r="DX157" s="1"/>
+      <c r="DY157" s="1"/>
+      <c r="DZ157" s="1"/>
+      <c r="EA157" s="1"/>
+      <c r="EB157" s="1"/>
+      <c r="EC157" s="1"/>
+      <c r="ED157" s="1"/>
+      <c r="EE157" s="1"/>
+      <c r="EF157" s="1"/>
+      <c r="EG157" s="1"/>
+      <c r="EH157" s="1"/>
+      <c r="EI157" s="1"/>
+      <c r="EJ157" s="1"/>
+      <c r="EK157" s="1"/>
+      <c r="EL157" s="1"/>
+      <c r="EM157" s="1"/>
+      <c r="EN157" s="1"/>
+      <c r="EO157" s="1"/>
+      <c r="EP157" s="1"/>
+      <c r="EQ157" s="1"/>
+      <c r="ER157" s="1"/>
+      <c r="ES157" s="1"/>
+      <c r="ET157" s="1"/>
+      <c r="EU157" s="1"/>
+      <c r="EV157" s="1"/>
+      <c r="EW157" s="1"/>
+      <c r="EX157" s="1"/>
+      <c r="EY157" s="1"/>
+      <c r="EZ157" s="1"/>
+      <c r="FA157" s="1"/>
+      <c r="FB157" s="1"/>
+      <c r="FC157" s="1"/>
+      <c r="FD157" s="1"/>
+      <c r="FE157" s="1"/>
+      <c r="FF157" s="1"/>
+      <c r="FG157" s="1"/>
+      <c r="FH157" s="1"/>
+      <c r="FI157" s="1"/>
+      <c r="FJ157" s="1"/>
+      <c r="FK157" s="1"/>
+      <c r="FL157" s="1"/>
+      <c r="FM157" s="1"/>
+      <c r="FN157" s="1"/>
+      <c r="FO157" s="1"/>
+      <c r="FP157" s="1"/>
+      <c r="FQ157" s="1"/>
+      <c r="FR157" s="1"/>
+      <c r="FS157" s="1"/>
+      <c r="FT157" s="1"/>
+      <c r="FU157" s="1"/>
+      <c r="FV157" s="1"/>
+      <c r="FW157" s="1"/>
+      <c r="FX157" s="1"/>
+      <c r="FY157" s="1"/>
+      <c r="FZ157" s="1"/>
+      <c r="GA157" s="1"/>
+      <c r="GB157" s="1"/>
+      <c r="GC157" s="1"/>
+      <c r="GD157" s="1"/>
+      <c r="GE157" s="1"/>
+      <c r="GF157" s="1"/>
+      <c r="GG157" s="1"/>
+      <c r="GH157" s="1"/>
+      <c r="GI157" s="1"/>
+      <c r="GJ157" s="1"/>
+      <c r="GK157" s="1"/>
+      <c r="GL157" s="1"/>
+      <c r="GM157" s="1"/>
+      <c r="GN157" s="1"/>
+      <c r="GO157" s="1"/>
+      <c r="GP157" s="1"/>
+      <c r="GQ157" s="1"/>
+      <c r="GR157" s="1"/>
+      <c r="GS157" s="1"/>
+      <c r="GT157" s="1"/>
+      <c r="GU157" s="1"/>
+      <c r="GV157" s="1"/>
+      <c r="GW157" s="1"/>
+      <c r="GX157" s="1"/>
+      <c r="GY157" s="1"/>
+      <c r="GZ157" s="1"/>
+      <c r="HA157" s="1"/>
+      <c r="HB157" s="1"/>
+      <c r="HC157" s="1"/>
+      <c r="HD157" s="1"/>
+      <c r="HE157" s="1"/>
+      <c r="HF157" s="1"/>
+      <c r="HG157" s="1"/>
+      <c r="HH157" s="1"/>
+      <c r="HI157" s="1"/>
+      <c r="HJ157" s="1"/>
+      <c r="HK157" s="1"/>
+      <c r="HL157" s="1"/>
+      <c r="HM157" s="1"/>
+      <c r="HN157" s="1"/>
+      <c r="HO157" s="1"/>
+      <c r="HP157" s="1"/>
+      <c r="HQ157" s="1"/>
+      <c r="HR157" s="1"/>
+      <c r="HS157" s="1"/>
+      <c r="HT157" s="1"/>
+      <c r="HU157" s="1"/>
+      <c r="HV157" s="1"/>
+      <c r="HW157" s="1"/>
+      <c r="HX157" s="1"/>
+      <c r="HY157" s="1"/>
+      <c r="HZ157" s="1"/>
+      <c r="IA157" s="1"/>
+      <c r="IB157" s="1"/>
+      <c r="IC157" s="1"/>
+      <c r="ID157" s="1"/>
+      <c r="IE157" s="1"/>
+      <c r="IF157" s="1"/>
+      <c r="IG157" s="1"/>
+      <c r="IH157" s="1"/>
+      <c r="II157" s="1"/>
+      <c r="IJ157" s="1"/>
+      <c r="IK157" s="1"/>
+      <c r="IL157" s="1"/>
+      <c r="IM157" s="1"/>
+      <c r="IN157" s="1"/>
+      <c r="IO157" s="1"/>
+      <c r="IP157" s="1"/>
+      <c r="IQ157" s="1"/>
+      <c r="IR157" s="1"/>
+      <c r="IS157" s="1"/>
+      <c r="IT157" s="1"/>
+      <c r="IU157" s="1"/>
+      <c r="IV157" s="1"/>
+      <c r="IW157" s="1"/>
+      <c r="IX157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G159" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I159" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="J159" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K159" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+      <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="1"/>
+      <c r="Z159" s="1"/>
+      <c r="AA159" s="1"/>
+      <c r="AB159" s="1"/>
+      <c r="AC159" s="1"/>
+      <c r="AD159" s="1"/>
+      <c r="AE159" s="1"/>
+      <c r="AF159" s="1"/>
+      <c r="AG159" s="1"/>
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+      <c r="AJ159" s="1"/>
+      <c r="AK159" s="1"/>
+      <c r="AL159" s="1"/>
+      <c r="AM159" s="1"/>
+      <c r="AN159" s="1"/>
+      <c r="AO159" s="1"/>
+      <c r="AP159" s="1"/>
+      <c r="AQ159" s="1"/>
+      <c r="AR159" s="1"/>
+      <c r="AS159" s="1"/>
+      <c r="AT159" s="1"/>
+      <c r="AU159" s="1"/>
+      <c r="AV159" s="1"/>
+      <c r="AW159" s="1"/>
+      <c r="AX159" s="1"/>
+      <c r="AY159" s="1"/>
+      <c r="AZ159" s="1"/>
+      <c r="BA159" s="1"/>
+      <c r="BB159" s="1"/>
+      <c r="BC159" s="1"/>
+      <c r="BD159" s="1"/>
+      <c r="BE159" s="1"/>
+      <c r="BF159" s="1"/>
+      <c r="BG159" s="1"/>
+      <c r="BH159" s="1"/>
+      <c r="BI159" s="1"/>
+      <c r="BJ159" s="1"/>
+      <c r="BK159" s="1"/>
+      <c r="BL159" s="1"/>
+      <c r="BM159" s="1"/>
+      <c r="BN159" s="1"/>
+      <c r="BO159" s="1"/>
+      <c r="BP159" s="1"/>
+      <c r="BQ159" s="1"/>
+      <c r="BR159" s="1"/>
+      <c r="BS159" s="1"/>
+      <c r="BT159" s="1"/>
+      <c r="BU159" s="1"/>
+      <c r="BV159" s="1"/>
+      <c r="BW159" s="1"/>
+      <c r="BX159" s="1"/>
+      <c r="BY159" s="1"/>
+      <c r="BZ159" s="1"/>
+      <c r="CA159" s="1"/>
+      <c r="CB159" s="1"/>
+      <c r="CC159" s="1"/>
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+      <c r="CM159" s="1"/>
+      <c r="CN159" s="1"/>
+      <c r="CO159" s="1"/>
+      <c r="CP159" s="1"/>
+      <c r="CQ159" s="1"/>
+      <c r="CR159" s="1"/>
+      <c r="CS159" s="1"/>
+      <c r="CT159" s="1"/>
+      <c r="CU159" s="1"/>
+      <c r="CV159" s="1"/>
+      <c r="CW159" s="1"/>
+      <c r="CX159" s="1"/>
+      <c r="CY159" s="1"/>
+      <c r="CZ159" s="1"/>
+      <c r="DA159" s="1"/>
+      <c r="DB159" s="1"/>
+      <c r="DC159" s="1"/>
+      <c r="DD159" s="1"/>
+      <c r="DE159" s="1"/>
+      <c r="DF159" s="1"/>
+      <c r="DG159" s="1"/>
+      <c r="DH159" s="1"/>
+      <c r="DI159" s="1"/>
+      <c r="DJ159" s="1"/>
+      <c r="DK159" s="1"/>
+      <c r="DL159" s="1"/>
+      <c r="DM159" s="1"/>
+      <c r="DN159" s="1"/>
+      <c r="DO159" s="1"/>
+      <c r="DP159" s="1"/>
+      <c r="DQ159" s="1"/>
+      <c r="DR159" s="1"/>
+      <c r="DS159" s="1"/>
+      <c r="DT159" s="1"/>
+      <c r="DU159" s="1"/>
+      <c r="DV159" s="1"/>
+      <c r="DW159" s="1"/>
+      <c r="DX159" s="1"/>
+      <c r="DY159" s="1"/>
+      <c r="DZ159" s="1"/>
+      <c r="EA159" s="1"/>
+      <c r="EB159" s="1"/>
+      <c r="EC159" s="1"/>
+      <c r="ED159" s="1"/>
+      <c r="EE159" s="1"/>
+      <c r="EF159" s="1"/>
+      <c r="EG159" s="1"/>
+      <c r="EH159" s="1"/>
+      <c r="EI159" s="1"/>
+      <c r="EJ159" s="1"/>
+      <c r="EK159" s="1"/>
+      <c r="EL159" s="1"/>
+      <c r="EM159" s="1"/>
+      <c r="EN159" s="1"/>
+      <c r="EO159" s="1"/>
+      <c r="EP159" s="1"/>
+      <c r="EQ159" s="1"/>
+      <c r="ER159" s="1"/>
+      <c r="ES159" s="1"/>
+      <c r="ET159" s="1"/>
+      <c r="EU159" s="1"/>
+      <c r="EV159" s="1"/>
+      <c r="EW159" s="1"/>
+      <c r="EX159" s="1"/>
+      <c r="EY159" s="1"/>
+      <c r="EZ159" s="1"/>
+      <c r="FA159" s="1"/>
+      <c r="FB159" s="1"/>
+      <c r="FC159" s="1"/>
+      <c r="FD159" s="1"/>
+      <c r="FE159" s="1"/>
+      <c r="FF159" s="1"/>
+      <c r="FG159" s="1"/>
+      <c r="FH159" s="1"/>
+      <c r="FI159" s="1"/>
+      <c r="FJ159" s="1"/>
+      <c r="FK159" s="1"/>
+      <c r="FL159" s="1"/>
+      <c r="FM159" s="1"/>
+      <c r="FN159" s="1"/>
+      <c r="FO159" s="1"/>
+      <c r="FP159" s="1"/>
+      <c r="FQ159" s="1"/>
+      <c r="FR159" s="1"/>
+      <c r="FS159" s="1"/>
+      <c r="FT159" s="1"/>
+      <c r="FU159" s="1"/>
+      <c r="FV159" s="1"/>
+      <c r="FW159" s="1"/>
+      <c r="FX159" s="1"/>
+      <c r="FY159" s="1"/>
+      <c r="FZ159" s="1"/>
+      <c r="GA159" s="1"/>
+      <c r="GB159" s="1"/>
+      <c r="GC159" s="1"/>
+      <c r="GD159" s="1"/>
+      <c r="GE159" s="1"/>
+      <c r="GF159" s="1"/>
+      <c r="GG159" s="1"/>
+      <c r="GH159" s="1"/>
+      <c r="GI159" s="1"/>
+      <c r="GJ159" s="1"/>
+      <c r="GK159" s="1"/>
+      <c r="GL159" s="1"/>
+      <c r="GM159" s="1"/>
+      <c r="GN159" s="1"/>
+      <c r="GO159" s="1"/>
+      <c r="GP159" s="1"/>
+      <c r="GQ159" s="1"/>
+      <c r="GR159" s="1"/>
+      <c r="GS159" s="1"/>
+      <c r="GT159" s="1"/>
+      <c r="GU159" s="1"/>
+      <c r="GV159" s="1"/>
+      <c r="GW159" s="1"/>
+      <c r="GX159" s="1"/>
+      <c r="GY159" s="1"/>
+      <c r="GZ159" s="1"/>
+      <c r="HA159" s="1"/>
+      <c r="HB159" s="1"/>
+      <c r="HC159" s="1"/>
+      <c r="HD159" s="1"/>
+      <c r="HE159" s="1"/>
+      <c r="HF159" s="1"/>
+      <c r="HG159" s="1"/>
+      <c r="HH159" s="1"/>
+      <c r="HI159" s="1"/>
+      <c r="HJ159" s="1"/>
+      <c r="HK159" s="1"/>
+      <c r="HL159" s="1"/>
+      <c r="HM159" s="1"/>
+      <c r="HN159" s="1"/>
+      <c r="HO159" s="1"/>
+      <c r="HP159" s="1"/>
+      <c r="HQ159" s="1"/>
+      <c r="HR159" s="1"/>
+      <c r="HS159" s="1"/>
+      <c r="HT159" s="1"/>
+      <c r="HU159" s="1"/>
+      <c r="HV159" s="1"/>
+      <c r="HW159" s="1"/>
+      <c r="HX159" s="1"/>
+      <c r="HY159" s="1"/>
+      <c r="HZ159" s="1"/>
+      <c r="IA159" s="1"/>
+      <c r="IB159" s="1"/>
+      <c r="IC159" s="1"/>
+      <c r="ID159" s="1"/>
+      <c r="IE159" s="1"/>
+      <c r="IF159" s="1"/>
+      <c r="IG159" s="1"/>
+      <c r="IH159" s="1"/>
+      <c r="II159" s="1"/>
+      <c r="IJ159" s="1"/>
+      <c r="IK159" s="1"/>
+      <c r="IL159" s="1"/>
+      <c r="IM159" s="1"/>
+      <c r="IN159" s="1"/>
+      <c r="IO159" s="1"/>
+      <c r="IP159" s="1"/>
+      <c r="IQ159" s="1"/>
+      <c r="IR159" s="1"/>
+      <c r="IS159" s="1"/>
+      <c r="IT159" s="1"/>
+      <c r="IU159" s="1"/>
+      <c r="IV159" s="1"/>
+      <c r="IW159" s="1"/>
+      <c r="IX159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I161" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K161" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I162" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K162" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G163" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I163" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="J163" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G164" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I164" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K164" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G165" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I165" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="J165" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K165" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I166" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K166" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I167" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K167" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G168" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I168" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G169" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I169" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K169" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E170" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F170" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" s="7"/>
+      <c r="K170" s="9"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E171" s="6"/>
+      <c r="F171" s="10"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="9"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E172" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F172" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G172" s="6"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="9"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I173" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I174" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I175" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="J175" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I176" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K176" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I177" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I178" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K178" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I179" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I180" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I181" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K181" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I182" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K182" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I183" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="J183" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K183" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I184" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K184" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="9"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E186" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F186" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="9"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E187" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F187" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="9"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E188" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G188" s="6"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="9"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E192" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E194" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F194" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J194" s="14"/>
+      <c r="K194" s="14"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="1"/>
+      <c r="Z194" s="1"/>
+      <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
+      <c r="AC194" s="1"/>
+      <c r="AD194" s="1"/>
+      <c r="AE194" s="1"/>
+      <c r="AF194" s="1"/>
+      <c r="AG194" s="1"/>
+      <c r="AH194" s="1"/>
+      <c r="AI194" s="1"/>
+      <c r="AJ194" s="1"/>
+      <c r="AK194" s="1"/>
+      <c r="AL194" s="1"/>
+      <c r="AM194" s="1"/>
+      <c r="AN194" s="1"/>
+      <c r="AO194" s="1"/>
+      <c r="AP194" s="1"/>
+      <c r="AQ194" s="1"/>
+      <c r="AR194" s="1"/>
+      <c r="AS194" s="1"/>
+      <c r="AT194" s="1"/>
+      <c r="AU194" s="1"/>
+      <c r="AV194" s="1"/>
+      <c r="AW194" s="1"/>
+      <c r="AX194" s="1"/>
+      <c r="AY194" s="1"/>
+      <c r="AZ194" s="1"/>
+      <c r="BA194" s="1"/>
+      <c r="BB194" s="1"/>
+      <c r="BC194" s="1"/>
+      <c r="BD194" s="1"/>
+      <c r="BE194" s="1"/>
+      <c r="BF194" s="1"/>
+      <c r="BG194" s="1"/>
+      <c r="BH194" s="1"/>
+      <c r="BI194" s="1"/>
+      <c r="BJ194" s="1"/>
+      <c r="BK194" s="1"/>
+      <c r="BL194" s="1"/>
+      <c r="BM194" s="1"/>
+      <c r="BN194" s="1"/>
+      <c r="BO194" s="1"/>
+      <c r="BP194" s="1"/>
+      <c r="BQ194" s="1"/>
+      <c r="BR194" s="1"/>
+      <c r="BS194" s="1"/>
+      <c r="BT194" s="1"/>
+      <c r="BU194" s="1"/>
+      <c r="BV194" s="1"/>
+      <c r="BW194" s="1"/>
+      <c r="BX194" s="1"/>
+      <c r="BY194" s="1"/>
+      <c r="BZ194" s="1"/>
+      <c r="CA194" s="1"/>
+      <c r="CB194" s="1"/>
+      <c r="CC194" s="1"/>
+      <c r="CD194" s="1"/>
+      <c r="CE194" s="1"/>
+      <c r="CF194" s="1"/>
+      <c r="CG194" s="1"/>
+      <c r="CH194" s="1"/>
+      <c r="CI194" s="1"/>
+      <c r="CJ194" s="1"/>
+      <c r="CK194" s="1"/>
+      <c r="CL194" s="1"/>
+      <c r="CM194" s="1"/>
+      <c r="CN194" s="1"/>
+      <c r="CO194" s="1"/>
+      <c r="CP194" s="1"/>
+      <c r="CQ194" s="1"/>
+      <c r="CR194" s="1"/>
+      <c r="CS194" s="1"/>
+      <c r="CT194" s="1"/>
+      <c r="CU194" s="1"/>
+      <c r="CV194" s="1"/>
+      <c r="CW194" s="1"/>
+      <c r="CX194" s="1"/>
+      <c r="CY194" s="1"/>
+      <c r="CZ194" s="1"/>
+      <c r="DA194" s="1"/>
+      <c r="DB194" s="1"/>
+      <c r="DC194" s="1"/>
+      <c r="DD194" s="1"/>
+      <c r="DE194" s="1"/>
+      <c r="DF194" s="1"/>
+      <c r="DG194" s="1"/>
+      <c r="DH194" s="1"/>
+      <c r="DI194" s="1"/>
+      <c r="DJ194" s="1"/>
+      <c r="DK194" s="1"/>
+      <c r="DL194" s="1"/>
+      <c r="DM194" s="1"/>
+      <c r="DN194" s="1"/>
+      <c r="DO194" s="1"/>
+      <c r="DP194" s="1"/>
+      <c r="DQ194" s="1"/>
+      <c r="DR194" s="1"/>
+      <c r="DS194" s="1"/>
+      <c r="DT194" s="1"/>
+      <c r="DU194" s="1"/>
+      <c r="DV194" s="1"/>
+      <c r="DW194" s="1"/>
+      <c r="DX194" s="1"/>
+      <c r="DY194" s="1"/>
+      <c r="DZ194" s="1"/>
+      <c r="EA194" s="1"/>
+      <c r="EB194" s="1"/>
+      <c r="EC194" s="1"/>
+      <c r="ED194" s="1"/>
+      <c r="EE194" s="1"/>
+      <c r="EF194" s="1"/>
+      <c r="EG194" s="1"/>
+      <c r="EH194" s="1"/>
+      <c r="EI194" s="1"/>
+      <c r="EJ194" s="1"/>
+      <c r="EK194" s="1"/>
+      <c r="EL194" s="1"/>
+      <c r="EM194" s="1"/>
+      <c r="EN194" s="1"/>
+      <c r="EO194" s="1"/>
+      <c r="EP194" s="1"/>
+      <c r="EQ194" s="1"/>
+      <c r="ER194" s="1"/>
+      <c r="ES194" s="1"/>
+      <c r="ET194" s="1"/>
+      <c r="EU194" s="1"/>
+      <c r="EV194" s="1"/>
+      <c r="EW194" s="1"/>
+      <c r="EX194" s="1"/>
+      <c r="EY194" s="1"/>
+      <c r="EZ194" s="1"/>
+      <c r="FA194" s="1"/>
+      <c r="FB194" s="1"/>
+      <c r="FC194" s="1"/>
+      <c r="FD194" s="1"/>
+      <c r="FE194" s="1"/>
+      <c r="FF194" s="1"/>
+      <c r="FG194" s="1"/>
+      <c r="FH194" s="1"/>
+      <c r="FI194" s="1"/>
+      <c r="FJ194" s="1"/>
+      <c r="FK194" s="1"/>
+      <c r="FL194" s="1"/>
+      <c r="FM194" s="1"/>
+      <c r="FN194" s="1"/>
+      <c r="FO194" s="1"/>
+      <c r="FP194" s="1"/>
+      <c r="FQ194" s="1"/>
+      <c r="FR194" s="1"/>
+      <c r="FS194" s="1"/>
+      <c r="FT194" s="1"/>
+      <c r="FU194" s="1"/>
+      <c r="FV194" s="1"/>
+      <c r="FW194" s="1"/>
+      <c r="FX194" s="1"/>
+      <c r="FY194" s="1"/>
+      <c r="FZ194" s="1"/>
+      <c r="GA194" s="1"/>
+      <c r="GB194" s="1"/>
+      <c r="GC194" s="1"/>
+      <c r="GD194" s="1"/>
+      <c r="GE194" s="1"/>
+      <c r="GF194" s="1"/>
+      <c r="GG194" s="1"/>
+      <c r="GH194" s="1"/>
+      <c r="GI194" s="1"/>
+      <c r="GJ194" s="1"/>
+      <c r="GK194" s="1"/>
+      <c r="GL194" s="1"/>
+      <c r="GM194" s="1"/>
+      <c r="GN194" s="1"/>
+      <c r="GO194" s="1"/>
+      <c r="GP194" s="1"/>
+      <c r="GQ194" s="1"/>
+      <c r="GR194" s="1"/>
+      <c r="GS194" s="1"/>
+      <c r="GT194" s="1"/>
+      <c r="GU194" s="1"/>
+      <c r="GV194" s="1"/>
+      <c r="GW194" s="1"/>
+      <c r="GX194" s="1"/>
+      <c r="GY194" s="1"/>
+      <c r="GZ194" s="1"/>
+      <c r="HA194" s="1"/>
+      <c r="HB194" s="1"/>
+      <c r="HC194" s="1"/>
+      <c r="HD194" s="1"/>
+      <c r="HE194" s="1"/>
+      <c r="HF194" s="1"/>
+      <c r="HG194" s="1"/>
+      <c r="HH194" s="1"/>
+      <c r="HI194" s="1"/>
+      <c r="HJ194" s="1"/>
+      <c r="HK194" s="1"/>
+      <c r="HL194" s="1"/>
+      <c r="HM194" s="1"/>
+      <c r="HN194" s="1"/>
+      <c r="HO194" s="1"/>
+      <c r="HP194" s="1"/>
+      <c r="HQ194" s="1"/>
+      <c r="HR194" s="1"/>
+      <c r="HS194" s="1"/>
+      <c r="HT194" s="1"/>
+      <c r="HU194" s="1"/>
+      <c r="HV194" s="1"/>
+      <c r="HW194" s="1"/>
+      <c r="HX194" s="1"/>
+      <c r="HY194" s="1"/>
+      <c r="HZ194" s="1"/>
+      <c r="IA194" s="1"/>
+      <c r="IB194" s="1"/>
+      <c r="IC194" s="1"/>
+      <c r="ID194" s="1"/>
+      <c r="IE194" s="1"/>
+      <c r="IF194" s="1"/>
+      <c r="IG194" s="1"/>
+      <c r="IH194" s="1"/>
+      <c r="II194" s="1"/>
+      <c r="IJ194" s="1"/>
+      <c r="IK194" s="1"/>
+      <c r="IL194" s="1"/>
+      <c r="IM194" s="1"/>
+      <c r="IN194" s="1"/>
+      <c r="IO194" s="1"/>
+      <c r="IP194" s="1"/>
+      <c r="IQ194" s="1"/>
+      <c r="IR194" s="1"/>
+      <c r="IS194" s="1"/>
+      <c r="IT194" s="1"/>
+      <c r="IU194" s="1"/>
+      <c r="IV194" s="1"/>
+      <c r="IW194" s="1"/>
+      <c r="IX194" s="1"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E195" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="J196" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K196" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="1"/>
+      <c r="Z196" s="1"/>
+      <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
+      <c r="AC196" s="1"/>
+      <c r="AD196" s="1"/>
+      <c r="AE196" s="1"/>
+      <c r="AF196" s="1"/>
+      <c r="AG196" s="1"/>
+      <c r="AH196" s="1"/>
+      <c r="AI196" s="1"/>
+      <c r="AJ196" s="1"/>
+      <c r="AK196" s="1"/>
+      <c r="AL196" s="1"/>
+      <c r="AM196" s="1"/>
+      <c r="AN196" s="1"/>
+      <c r="AO196" s="1"/>
+      <c r="AP196" s="1"/>
+      <c r="AQ196" s="1"/>
+      <c r="AR196" s="1"/>
+      <c r="AS196" s="1"/>
+      <c r="AT196" s="1"/>
+      <c r="AU196" s="1"/>
+      <c r="AV196" s="1"/>
+      <c r="AW196" s="1"/>
+      <c r="AX196" s="1"/>
+      <c r="AY196" s="1"/>
+      <c r="AZ196" s="1"/>
+      <c r="BA196" s="1"/>
+      <c r="BB196" s="1"/>
+      <c r="BC196" s="1"/>
+      <c r="BD196" s="1"/>
+      <c r="BE196" s="1"/>
+      <c r="BF196" s="1"/>
+      <c r="BG196" s="1"/>
+      <c r="BH196" s="1"/>
+      <c r="BI196" s="1"/>
+      <c r="BJ196" s="1"/>
+      <c r="BK196" s="1"/>
+      <c r="BL196" s="1"/>
+      <c r="BM196" s="1"/>
+      <c r="BN196" s="1"/>
+      <c r="BO196" s="1"/>
+      <c r="BP196" s="1"/>
+      <c r="BQ196" s="1"/>
+      <c r="BR196" s="1"/>
+      <c r="BS196" s="1"/>
+      <c r="BT196" s="1"/>
+      <c r="BU196" s="1"/>
+      <c r="BV196" s="1"/>
+      <c r="BW196" s="1"/>
+      <c r="BX196" s="1"/>
+      <c r="BY196" s="1"/>
+      <c r="BZ196" s="1"/>
+      <c r="CA196" s="1"/>
+      <c r="CB196" s="1"/>
+      <c r="CC196" s="1"/>
+      <c r="CD196" s="1"/>
+      <c r="CE196" s="1"/>
+      <c r="CF196" s="1"/>
+      <c r="CG196" s="1"/>
+      <c r="CH196" s="1"/>
+      <c r="CI196" s="1"/>
+      <c r="CJ196" s="1"/>
+      <c r="CK196" s="1"/>
+      <c r="CL196" s="1"/>
+      <c r="CM196" s="1"/>
+      <c r="CN196" s="1"/>
+      <c r="CO196" s="1"/>
+      <c r="CP196" s="1"/>
+      <c r="CQ196" s="1"/>
+      <c r="CR196" s="1"/>
+      <c r="CS196" s="1"/>
+      <c r="CT196" s="1"/>
+      <c r="CU196" s="1"/>
+      <c r="CV196" s="1"/>
+      <c r="CW196" s="1"/>
+      <c r="CX196" s="1"/>
+      <c r="CY196" s="1"/>
+      <c r="CZ196" s="1"/>
+      <c r="DA196" s="1"/>
+      <c r="DB196" s="1"/>
+      <c r="DC196" s="1"/>
+      <c r="DD196" s="1"/>
+      <c r="DE196" s="1"/>
+      <c r="DF196" s="1"/>
+      <c r="DG196" s="1"/>
+      <c r="DH196" s="1"/>
+      <c r="DI196" s="1"/>
+      <c r="DJ196" s="1"/>
+      <c r="DK196" s="1"/>
+      <c r="DL196" s="1"/>
+      <c r="DM196" s="1"/>
+      <c r="DN196" s="1"/>
+      <c r="DO196" s="1"/>
+      <c r="DP196" s="1"/>
+      <c r="DQ196" s="1"/>
+      <c r="DR196" s="1"/>
+      <c r="DS196" s="1"/>
+      <c r="DT196" s="1"/>
+      <c r="DU196" s="1"/>
+      <c r="DV196" s="1"/>
+      <c r="DW196" s="1"/>
+      <c r="DX196" s="1"/>
+      <c r="DY196" s="1"/>
+      <c r="DZ196" s="1"/>
+      <c r="EA196" s="1"/>
+      <c r="EB196" s="1"/>
+      <c r="EC196" s="1"/>
+      <c r="ED196" s="1"/>
+      <c r="EE196" s="1"/>
+      <c r="EF196" s="1"/>
+      <c r="EG196" s="1"/>
+      <c r="EH196" s="1"/>
+      <c r="EI196" s="1"/>
+      <c r="EJ196" s="1"/>
+      <c r="EK196" s="1"/>
+      <c r="EL196" s="1"/>
+      <c r="EM196" s="1"/>
+      <c r="EN196" s="1"/>
+      <c r="EO196" s="1"/>
+      <c r="EP196" s="1"/>
+      <c r="EQ196" s="1"/>
+      <c r="ER196" s="1"/>
+      <c r="ES196" s="1"/>
+      <c r="ET196" s="1"/>
+      <c r="EU196" s="1"/>
+      <c r="EV196" s="1"/>
+      <c r="EW196" s="1"/>
+      <c r="EX196" s="1"/>
+      <c r="EY196" s="1"/>
+      <c r="EZ196" s="1"/>
+      <c r="FA196" s="1"/>
+      <c r="FB196" s="1"/>
+      <c r="FC196" s="1"/>
+      <c r="FD196" s="1"/>
+      <c r="FE196" s="1"/>
+      <c r="FF196" s="1"/>
+      <c r="FG196" s="1"/>
+      <c r="FH196" s="1"/>
+      <c r="FI196" s="1"/>
+      <c r="FJ196" s="1"/>
+      <c r="FK196" s="1"/>
+      <c r="FL196" s="1"/>
+      <c r="FM196" s="1"/>
+      <c r="FN196" s="1"/>
+      <c r="FO196" s="1"/>
+      <c r="FP196" s="1"/>
+      <c r="FQ196" s="1"/>
+      <c r="FR196" s="1"/>
+      <c r="FS196" s="1"/>
+      <c r="FT196" s="1"/>
+      <c r="FU196" s="1"/>
+      <c r="FV196" s="1"/>
+      <c r="FW196" s="1"/>
+      <c r="FX196" s="1"/>
+      <c r="FY196" s="1"/>
+      <c r="FZ196" s="1"/>
+      <c r="GA196" s="1"/>
+      <c r="GB196" s="1"/>
+      <c r="GC196" s="1"/>
+      <c r="GD196" s="1"/>
+      <c r="GE196" s="1"/>
+      <c r="GF196" s="1"/>
+      <c r="GG196" s="1"/>
+      <c r="GH196" s="1"/>
+      <c r="GI196" s="1"/>
+      <c r="GJ196" s="1"/>
+      <c r="GK196" s="1"/>
+      <c r="GL196" s="1"/>
+      <c r="GM196" s="1"/>
+      <c r="GN196" s="1"/>
+      <c r="GO196" s="1"/>
+      <c r="GP196" s="1"/>
+      <c r="GQ196" s="1"/>
+      <c r="GR196" s="1"/>
+      <c r="GS196" s="1"/>
+      <c r="GT196" s="1"/>
+      <c r="GU196" s="1"/>
+      <c r="GV196" s="1"/>
+      <c r="GW196" s="1"/>
+      <c r="GX196" s="1"/>
+      <c r="GY196" s="1"/>
+      <c r="GZ196" s="1"/>
+      <c r="HA196" s="1"/>
+      <c r="HB196" s="1"/>
+      <c r="HC196" s="1"/>
+      <c r="HD196" s="1"/>
+      <c r="HE196" s="1"/>
+      <c r="HF196" s="1"/>
+      <c r="HG196" s="1"/>
+      <c r="HH196" s="1"/>
+      <c r="HI196" s="1"/>
+      <c r="HJ196" s="1"/>
+      <c r="HK196" s="1"/>
+      <c r="HL196" s="1"/>
+      <c r="HM196" s="1"/>
+      <c r="HN196" s="1"/>
+      <c r="HO196" s="1"/>
+      <c r="HP196" s="1"/>
+      <c r="HQ196" s="1"/>
+      <c r="HR196" s="1"/>
+      <c r="HS196" s="1"/>
+      <c r="HT196" s="1"/>
+      <c r="HU196" s="1"/>
+      <c r="HV196" s="1"/>
+      <c r="HW196" s="1"/>
+      <c r="HX196" s="1"/>
+      <c r="HY196" s="1"/>
+      <c r="HZ196" s="1"/>
+      <c r="IA196" s="1"/>
+      <c r="IB196" s="1"/>
+      <c r="IC196" s="1"/>
+      <c r="ID196" s="1"/>
+      <c r="IE196" s="1"/>
+      <c r="IF196" s="1"/>
+      <c r="IG196" s="1"/>
+      <c r="IH196" s="1"/>
+      <c r="II196" s="1"/>
+      <c r="IJ196" s="1"/>
+      <c r="IK196" s="1"/>
+      <c r="IL196" s="1"/>
+      <c r="IM196" s="1"/>
+      <c r="IN196" s="1"/>
+      <c r="IO196" s="1"/>
+      <c r="IP196" s="1"/>
+      <c r="IQ196" s="1"/>
+      <c r="IR196" s="1"/>
+      <c r="IS196" s="1"/>
+      <c r="IT196" s="1"/>
+      <c r="IU196" s="1"/>
+      <c r="IV196" s="1"/>
+      <c r="IW196" s="1"/>
+      <c r="IX196" s="1"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G198" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I198" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K198" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G199" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I199" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="J199" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K199" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G200" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I200" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J200" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K200" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G201" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I201" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="J201" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K201" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I202" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="J202" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K202" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G203" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I203" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="J203" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K203" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G204" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I204" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="J204" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K204" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="67.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G205" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I205" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="J205" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G206" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I206" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J206" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K206" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G207" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I207" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="J207" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K207" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G208" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I208" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="J208" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K208" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G209" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I209" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="J209" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K209" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G210" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I210" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="J210" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K210" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G211" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I211" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="J211" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K211" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G212" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I212" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="J212" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K212" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G213" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I213" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="J213" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G214" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I214" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="J214" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K214" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G215" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I215" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="J215" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G216" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I216" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="J216" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G217" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I217" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="J217" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G218" s="6"/>
+      <c r="J218" s="7"/>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E219" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F219" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" s="7"/>
+      <c r="K219" s="9"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E220" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F220" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J220" s="7"/>
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E221" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F221" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="J221" s="7"/>
+      <c r="K221" s="9"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I222" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="J222" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I223" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="J223" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K223" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I224" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="J224" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K224" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I225" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="J225" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I226" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K226" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I227" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="J227" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="K227" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E229" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F229" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G229" s="6"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="9"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E230" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F230" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G230" s="6"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="9"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G231" s="6"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="9"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E232" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E235" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J235" s="14"/>
+      <c r="K235" s="14"/>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E236" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J236" s="14"/>
+      <c r="K236" s="14"/>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E237" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F237" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="J237" s="14"/>
+      <c r="K237" s="14"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
+      <c r="AH237" s="1"/>
+      <c r="AI237" s="1"/>
+      <c r="AJ237" s="1"/>
+      <c r="AK237" s="1"/>
+      <c r="AL237" s="1"/>
+      <c r="AM237" s="1"/>
+      <c r="AN237" s="1"/>
+      <c r="AO237" s="1"/>
+      <c r="AP237" s="1"/>
+      <c r="AQ237" s="1"/>
+      <c r="AR237" s="1"/>
+      <c r="AS237" s="1"/>
+      <c r="AT237" s="1"/>
+      <c r="AU237" s="1"/>
+      <c r="AV237" s="1"/>
+      <c r="AW237" s="1"/>
+      <c r="AX237" s="1"/>
+      <c r="AY237" s="1"/>
+      <c r="AZ237" s="1"/>
+      <c r="BA237" s="1"/>
+      <c r="BB237" s="1"/>
+      <c r="BC237" s="1"/>
+      <c r="BD237" s="1"/>
+      <c r="BE237" s="1"/>
+      <c r="BF237" s="1"/>
+      <c r="BG237" s="1"/>
+      <c r="BH237" s="1"/>
+      <c r="BI237" s="1"/>
+      <c r="BJ237" s="1"/>
+      <c r="BK237" s="1"/>
+      <c r="BL237" s="1"/>
+      <c r="BM237" s="1"/>
+      <c r="BN237" s="1"/>
+      <c r="BO237" s="1"/>
+      <c r="BP237" s="1"/>
+      <c r="BQ237" s="1"/>
+      <c r="BR237" s="1"/>
+      <c r="BS237" s="1"/>
+      <c r="BT237" s="1"/>
+      <c r="BU237" s="1"/>
+      <c r="BV237" s="1"/>
+      <c r="BW237" s="1"/>
+      <c r="BX237" s="1"/>
+      <c r="BY237" s="1"/>
+      <c r="BZ237" s="1"/>
+      <c r="CA237" s="1"/>
+      <c r="CB237" s="1"/>
+      <c r="CC237" s="1"/>
+      <c r="CD237" s="1"/>
+      <c r="CE237" s="1"/>
+      <c r="CF237" s="1"/>
+      <c r="CG237" s="1"/>
+      <c r="CH237" s="1"/>
+      <c r="CI237" s="1"/>
+      <c r="CJ237" s="1"/>
+      <c r="CK237" s="1"/>
+      <c r="CL237" s="1"/>
+      <c r="CM237" s="1"/>
+      <c r="CN237" s="1"/>
+      <c r="CO237" s="1"/>
+      <c r="CP237" s="1"/>
+      <c r="CQ237" s="1"/>
+      <c r="CR237" s="1"/>
+      <c r="CS237" s="1"/>
+      <c r="CT237" s="1"/>
+      <c r="CU237" s="1"/>
+      <c r="CV237" s="1"/>
+      <c r="CW237" s="1"/>
+      <c r="CX237" s="1"/>
+      <c r="CY237" s="1"/>
+      <c r="CZ237" s="1"/>
+      <c r="DA237" s="1"/>
+      <c r="DB237" s="1"/>
+      <c r="DC237" s="1"/>
+      <c r="DD237" s="1"/>
+      <c r="DE237" s="1"/>
+      <c r="DF237" s="1"/>
+      <c r="DG237" s="1"/>
+      <c r="DH237" s="1"/>
+      <c r="DI237" s="1"/>
+      <c r="DJ237" s="1"/>
+      <c r="DK237" s="1"/>
+      <c r="DL237" s="1"/>
+      <c r="DM237" s="1"/>
+      <c r="DN237" s="1"/>
+      <c r="DO237" s="1"/>
+      <c r="DP237" s="1"/>
+      <c r="DQ237" s="1"/>
+      <c r="DR237" s="1"/>
+      <c r="DS237" s="1"/>
+      <c r="DT237" s="1"/>
+      <c r="DU237" s="1"/>
+      <c r="DV237" s="1"/>
+      <c r="DW237" s="1"/>
+      <c r="DX237" s="1"/>
+      <c r="DY237" s="1"/>
+      <c r="DZ237" s="1"/>
+      <c r="EA237" s="1"/>
+      <c r="EB237" s="1"/>
+      <c r="EC237" s="1"/>
+      <c r="ED237" s="1"/>
+      <c r="EE237" s="1"/>
+      <c r="EF237" s="1"/>
+      <c r="EG237" s="1"/>
+      <c r="EH237" s="1"/>
+      <c r="EI237" s="1"/>
+      <c r="EJ237" s="1"/>
+      <c r="EK237" s="1"/>
+      <c r="EL237" s="1"/>
+      <c r="EM237" s="1"/>
+      <c r="EN237" s="1"/>
+      <c r="EO237" s="1"/>
+      <c r="EP237" s="1"/>
+      <c r="EQ237" s="1"/>
+      <c r="ER237" s="1"/>
+      <c r="ES237" s="1"/>
+      <c r="ET237" s="1"/>
+      <c r="EU237" s="1"/>
+      <c r="EV237" s="1"/>
+      <c r="EW237" s="1"/>
+      <c r="EX237" s="1"/>
+      <c r="EY237" s="1"/>
+      <c r="EZ237" s="1"/>
+      <c r="FA237" s="1"/>
+      <c r="FB237" s="1"/>
+      <c r="FC237" s="1"/>
+      <c r="FD237" s="1"/>
+      <c r="FE237" s="1"/>
+      <c r="FF237" s="1"/>
+      <c r="FG237" s="1"/>
+      <c r="FH237" s="1"/>
+      <c r="FI237" s="1"/>
+      <c r="FJ237" s="1"/>
+      <c r="FK237" s="1"/>
+      <c r="FL237" s="1"/>
+      <c r="FM237" s="1"/>
+      <c r="FN237" s="1"/>
+      <c r="FO237" s="1"/>
+      <c r="FP237" s="1"/>
+      <c r="FQ237" s="1"/>
+      <c r="FR237" s="1"/>
+      <c r="FS237" s="1"/>
+      <c r="FT237" s="1"/>
+      <c r="FU237" s="1"/>
+      <c r="FV237" s="1"/>
+      <c r="FW237" s="1"/>
+      <c r="FX237" s="1"/>
+      <c r="FY237" s="1"/>
+      <c r="FZ237" s="1"/>
+      <c r="GA237" s="1"/>
+      <c r="GB237" s="1"/>
+      <c r="GC237" s="1"/>
+      <c r="GD237" s="1"/>
+      <c r="GE237" s="1"/>
+      <c r="GF237" s="1"/>
+      <c r="GG237" s="1"/>
+      <c r="GH237" s="1"/>
+      <c r="GI237" s="1"/>
+      <c r="GJ237" s="1"/>
+      <c r="GK237" s="1"/>
+      <c r="GL237" s="1"/>
+      <c r="GM237" s="1"/>
+      <c r="GN237" s="1"/>
+      <c r="GO237" s="1"/>
+      <c r="GP237" s="1"/>
+      <c r="GQ237" s="1"/>
+      <c r="GR237" s="1"/>
+      <c r="GS237" s="1"/>
+      <c r="GT237" s="1"/>
+      <c r="GU237" s="1"/>
+      <c r="GV237" s="1"/>
+      <c r="GW237" s="1"/>
+      <c r="GX237" s="1"/>
+      <c r="GY237" s="1"/>
+      <c r="GZ237" s="1"/>
+      <c r="HA237" s="1"/>
+      <c r="HB237" s="1"/>
+      <c r="HC237" s="1"/>
+      <c r="HD237" s="1"/>
+      <c r="HE237" s="1"/>
+      <c r="HF237" s="1"/>
+      <c r="HG237" s="1"/>
+      <c r="HH237" s="1"/>
+      <c r="HI237" s="1"/>
+      <c r="HJ237" s="1"/>
+      <c r="HK237" s="1"/>
+      <c r="HL237" s="1"/>
+      <c r="HM237" s="1"/>
+      <c r="HN237" s="1"/>
+      <c r="HO237" s="1"/>
+      <c r="HP237" s="1"/>
+      <c r="HQ237" s="1"/>
+      <c r="HR237" s="1"/>
+      <c r="HS237" s="1"/>
+      <c r="HT237" s="1"/>
+      <c r="HU237" s="1"/>
+      <c r="HV237" s="1"/>
+      <c r="HW237" s="1"/>
+      <c r="HX237" s="1"/>
+      <c r="HY237" s="1"/>
+      <c r="HZ237" s="1"/>
+      <c r="IA237" s="1"/>
+      <c r="IB237" s="1"/>
+      <c r="IC237" s="1"/>
+      <c r="ID237" s="1"/>
+      <c r="IE237" s="1"/>
+      <c r="IF237" s="1"/>
+      <c r="IG237" s="1"/>
+      <c r="IH237" s="1"/>
+      <c r="II237" s="1"/>
+      <c r="IJ237" s="1"/>
+      <c r="IK237" s="1"/>
+      <c r="IL237" s="1"/>
+      <c r="IM237" s="1"/>
+      <c r="IN237" s="1"/>
+      <c r="IO237" s="1"/>
+      <c r="IP237" s="1"/>
+      <c r="IQ237" s="1"/>
+      <c r="IR237" s="1"/>
+      <c r="IS237" s="1"/>
+      <c r="IT237" s="1"/>
+      <c r="IU237" s="1"/>
+      <c r="IV237" s="1"/>
+      <c r="IW237" s="1"/>
+      <c r="IX237" s="1"/>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E238" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J238" s="14"/>
+      <c r="K238" s="14"/>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G239" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="J239" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K239" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="M239" s="1"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
+      <c r="AH239" s="1"/>
+      <c r="AI239" s="1"/>
+      <c r="AJ239" s="1"/>
+      <c r="AK239" s="1"/>
+      <c r="AL239" s="1"/>
+      <c r="AM239" s="1"/>
+      <c r="AN239" s="1"/>
+      <c r="AO239" s="1"/>
+      <c r="AP239" s="1"/>
+      <c r="AQ239" s="1"/>
+      <c r="AR239" s="1"/>
+      <c r="AS239" s="1"/>
+      <c r="AT239" s="1"/>
+      <c r="AU239" s="1"/>
+      <c r="AV239" s="1"/>
+      <c r="AW239" s="1"/>
+      <c r="AX239" s="1"/>
+      <c r="AY239" s="1"/>
+      <c r="AZ239" s="1"/>
+      <c r="BA239" s="1"/>
+      <c r="BB239" s="1"/>
+      <c r="BC239" s="1"/>
+      <c r="BD239" s="1"/>
+      <c r="BE239" s="1"/>
+      <c r="BF239" s="1"/>
+      <c r="BG239" s="1"/>
+      <c r="BH239" s="1"/>
+      <c r="BI239" s="1"/>
+      <c r="BJ239" s="1"/>
+      <c r="BK239" s="1"/>
+      <c r="BL239" s="1"/>
+      <c r="BM239" s="1"/>
+      <c r="BN239" s="1"/>
+      <c r="BO239" s="1"/>
+      <c r="BP239" s="1"/>
+      <c r="BQ239" s="1"/>
+      <c r="BR239" s="1"/>
+      <c r="BS239" s="1"/>
+      <c r="BT239" s="1"/>
+      <c r="BU239" s="1"/>
+      <c r="BV239" s="1"/>
+      <c r="BW239" s="1"/>
+      <c r="BX239" s="1"/>
+      <c r="BY239" s="1"/>
+      <c r="BZ239" s="1"/>
+      <c r="CA239" s="1"/>
+      <c r="CB239" s="1"/>
+      <c r="CC239" s="1"/>
+      <c r="CD239" s="1"/>
+      <c r="CE239" s="1"/>
+      <c r="CF239" s="1"/>
+      <c r="CG239" s="1"/>
+      <c r="CH239" s="1"/>
+      <c r="CI239" s="1"/>
+      <c r="CJ239" s="1"/>
+      <c r="CK239" s="1"/>
+      <c r="CL239" s="1"/>
+      <c r="CM239" s="1"/>
+      <c r="CN239" s="1"/>
+      <c r="CO239" s="1"/>
+      <c r="CP239" s="1"/>
+      <c r="CQ239" s="1"/>
+      <c r="CR239" s="1"/>
+      <c r="CS239" s="1"/>
+      <c r="CT239" s="1"/>
+      <c r="CU239" s="1"/>
+      <c r="CV239" s="1"/>
+      <c r="CW239" s="1"/>
+      <c r="CX239" s="1"/>
+      <c r="CY239" s="1"/>
+      <c r="CZ239" s="1"/>
+      <c r="DA239" s="1"/>
+      <c r="DB239" s="1"/>
+      <c r="DC239" s="1"/>
+      <c r="DD239" s="1"/>
+      <c r="DE239" s="1"/>
+      <c r="DF239" s="1"/>
+      <c r="DG239" s="1"/>
+      <c r="DH239" s="1"/>
+      <c r="DI239" s="1"/>
+      <c r="DJ239" s="1"/>
+      <c r="DK239" s="1"/>
+      <c r="DL239" s="1"/>
+      <c r="DM239" s="1"/>
+      <c r="DN239" s="1"/>
+      <c r="DO239" s="1"/>
+      <c r="DP239" s="1"/>
+      <c r="DQ239" s="1"/>
+      <c r="DR239" s="1"/>
+      <c r="DS239" s="1"/>
+      <c r="DT239" s="1"/>
+      <c r="DU239" s="1"/>
+      <c r="DV239" s="1"/>
+      <c r="DW239" s="1"/>
+      <c r="DX239" s="1"/>
+      <c r="DY239" s="1"/>
+      <c r="DZ239" s="1"/>
+      <c r="EA239" s="1"/>
+      <c r="EB239" s="1"/>
+      <c r="EC239" s="1"/>
+      <c r="ED239" s="1"/>
+      <c r="EE239" s="1"/>
+      <c r="EF239" s="1"/>
+      <c r="EG239" s="1"/>
+      <c r="EH239" s="1"/>
+      <c r="EI239" s="1"/>
+      <c r="EJ239" s="1"/>
+      <c r="EK239" s="1"/>
+      <c r="EL239" s="1"/>
+      <c r="EM239" s="1"/>
+      <c r="EN239" s="1"/>
+      <c r="EO239" s="1"/>
+      <c r="EP239" s="1"/>
+      <c r="EQ239" s="1"/>
+      <c r="ER239" s="1"/>
+      <c r="ES239" s="1"/>
+      <c r="ET239" s="1"/>
+      <c r="EU239" s="1"/>
+      <c r="EV239" s="1"/>
+      <c r="EW239" s="1"/>
+      <c r="EX239" s="1"/>
+      <c r="EY239" s="1"/>
+      <c r="EZ239" s="1"/>
+      <c r="FA239" s="1"/>
+      <c r="FB239" s="1"/>
+      <c r="FC239" s="1"/>
+      <c r="FD239" s="1"/>
+      <c r="FE239" s="1"/>
+      <c r="FF239" s="1"/>
+      <c r="FG239" s="1"/>
+      <c r="FH239" s="1"/>
+      <c r="FI239" s="1"/>
+      <c r="FJ239" s="1"/>
+      <c r="FK239" s="1"/>
+      <c r="FL239" s="1"/>
+      <c r="FM239" s="1"/>
+      <c r="FN239" s="1"/>
+      <c r="FO239" s="1"/>
+      <c r="FP239" s="1"/>
+      <c r="FQ239" s="1"/>
+      <c r="FR239" s="1"/>
+      <c r="FS239" s="1"/>
+      <c r="FT239" s="1"/>
+      <c r="FU239" s="1"/>
+      <c r="FV239" s="1"/>
+      <c r="FW239" s="1"/>
+      <c r="FX239" s="1"/>
+      <c r="FY239" s="1"/>
+      <c r="FZ239" s="1"/>
+      <c r="GA239" s="1"/>
+      <c r="GB239" s="1"/>
+      <c r="GC239" s="1"/>
+      <c r="GD239" s="1"/>
+      <c r="GE239" s="1"/>
+      <c r="GF239" s="1"/>
+      <c r="GG239" s="1"/>
+      <c r="GH239" s="1"/>
+      <c r="GI239" s="1"/>
+      <c r="GJ239" s="1"/>
+      <c r="GK239" s="1"/>
+      <c r="GL239" s="1"/>
+      <c r="GM239" s="1"/>
+      <c r="GN239" s="1"/>
+      <c r="GO239" s="1"/>
+      <c r="GP239" s="1"/>
+      <c r="GQ239" s="1"/>
+      <c r="GR239" s="1"/>
+      <c r="GS239" s="1"/>
+      <c r="GT239" s="1"/>
+      <c r="GU239" s="1"/>
+      <c r="GV239" s="1"/>
+      <c r="GW239" s="1"/>
+      <c r="GX239" s="1"/>
+      <c r="GY239" s="1"/>
+      <c r="GZ239" s="1"/>
+      <c r="HA239" s="1"/>
+      <c r="HB239" s="1"/>
+      <c r="HC239" s="1"/>
+      <c r="HD239" s="1"/>
+      <c r="HE239" s="1"/>
+      <c r="HF239" s="1"/>
+      <c r="HG239" s="1"/>
+      <c r="HH239" s="1"/>
+      <c r="HI239" s="1"/>
+      <c r="HJ239" s="1"/>
+      <c r="HK239" s="1"/>
+      <c r="HL239" s="1"/>
+      <c r="HM239" s="1"/>
+      <c r="HN239" s="1"/>
+      <c r="HO239" s="1"/>
+      <c r="HP239" s="1"/>
+      <c r="HQ239" s="1"/>
+      <c r="HR239" s="1"/>
+      <c r="HS239" s="1"/>
+      <c r="HT239" s="1"/>
+      <c r="HU239" s="1"/>
+      <c r="HV239" s="1"/>
+      <c r="HW239" s="1"/>
+      <c r="HX239" s="1"/>
+      <c r="HY239" s="1"/>
+      <c r="HZ239" s="1"/>
+      <c r="IA239" s="1"/>
+      <c r="IB239" s="1"/>
+      <c r="IC239" s="1"/>
+      <c r="ID239" s="1"/>
+      <c r="IE239" s="1"/>
+      <c r="IF239" s="1"/>
+      <c r="IG239" s="1"/>
+      <c r="IH239" s="1"/>
+      <c r="II239" s="1"/>
+      <c r="IJ239" s="1"/>
+      <c r="IK239" s="1"/>
+      <c r="IL239" s="1"/>
+      <c r="IM239" s="1"/>
+      <c r="IN239" s="1"/>
+      <c r="IO239" s="1"/>
+      <c r="IP239" s="1"/>
+      <c r="IQ239" s="1"/>
+      <c r="IR239" s="1"/>
+      <c r="IS239" s="1"/>
+      <c r="IT239" s="1"/>
+      <c r="IU239" s="1"/>
+      <c r="IV239" s="1"/>
+      <c r="IW239" s="1"/>
+      <c r="IX239" s="1"/>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M240" s="1"/>
+    </row>
+    <row r="241" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G241" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I241" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="J241" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K241" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G242" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I242" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="J242" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K242" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G243" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I243" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="J243" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K243" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G244" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I244" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="J244" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K244" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G245" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I245" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="J245" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="K245" s="16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G246" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I246" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="J246" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K246" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G247" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I247" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="J247" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K247" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G248" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I248" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="J248" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K248" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G249" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I249" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K249" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G250" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I250" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="J250" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K250" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G251" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I251" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K251" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G252" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I252" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K252" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G253" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I253" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G254" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I254" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="J254" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K254" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G255" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I255" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K255" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G256" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I256" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="J256" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K256" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G257" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I257" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="J257" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G258" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I258" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K258" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G259" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I259" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="J259" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K259" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G260" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I260" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="J260" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K260" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G261" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I261" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="J261" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K261" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G262" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I262" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="J262" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="105.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G263" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I263" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="J263" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G264" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I264" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="J264" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G265" s="6"/>
+      <c r="J265" s="7"/>
+      <c r="K265" s="9"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G266" s="6"/>
+      <c r="J266" s="7"/>
+      <c r="K266" s="9"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G267" s="6"/>
+      <c r="J267" s="7"/>
+      <c r="K267" s="9"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E268" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F268" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G268" s="6"/>
+      <c r="J268" s="12"/>
+      <c r="K268" s="9"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E269" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F269" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G269" s="6"/>
+      <c r="J269" s="12"/>
+      <c r="K269" s="9"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G270" s="6"/>
+      <c r="J270" s="12"/>
+      <c r="K270" s="9"/>
+    </row>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E271" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J275" s="14"/>
+      <c r="K275" s="14"/>
+    </row>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="6"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F276" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="1"/>
+    </row>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="6"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F277" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="1"/>
+    </row>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="6"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="1"/>
+    </row>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="6"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="1"/>
+    </row>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="6"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F280" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="1"/>
+    </row>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J281" s="14"/>
+      <c r="K281" s="14"/>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J282" s="14"/>
+      <c r="K282" s="14"/>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J283" s="14"/>
+      <c r="K283" s="14"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G284" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I284" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="J284" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K284" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G285" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I285" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="J285" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K285" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G286" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I286" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="J286" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K286" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G287" s="6"/>
+      <c r="I287" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="J287" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K287" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G288" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I288" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="J288" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K288" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G289" s="6"/>
+      <c r="I289" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="J289" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K289" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G290" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I290" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="J290" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K290" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G291" s="6"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="9"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E292" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F292" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J292" s="7"/>
+      <c r="K292" s="9"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E293" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F293" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="J293" s="7"/>
+      <c r="K293" s="9"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E294" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F294" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G294" s="6"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="9"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G295" s="6"/>
+      <c r="I295" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="J295" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K295" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G296" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I296" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="J296" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K296" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G297" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I297" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="J297" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G298" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I298" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="J298" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K298" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G299" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I299" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="J299" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K299" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G300" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I300" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="J300" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K300" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G301" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I301" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="J301" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K301" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G302" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I302" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="J302" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K302" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G303" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I303" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="J303" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K303" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G304" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I304" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="J304" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K304" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G305" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I305" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="J305" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K305" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G306" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I306" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="J306" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K306" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E307" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F307" s="18" t="n">
+        <v>74</v>
+      </c>
+      <c r="G307" s="6"/>
+      <c r="J307" s="7"/>
+      <c r="K307" s="9"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G308" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I308" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="J308" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K308" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F309" s="18"/>
+      <c r="G309" s="6"/>
+      <c r="J309" s="7"/>
+      <c r="K309" s="9"/>
+    </row>
+    <row r="310" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G310" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I310" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="J310" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K310" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G311" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I311" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="J311" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K311" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G312" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I312" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="J312" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K312" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G313" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I313" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="J313" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K313" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G314" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I314" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="J314" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K314" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G315" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I315" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="J315" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K315" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G316" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I316" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="J316" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K316" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G317" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="I317" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="J317" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K317" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G318" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I318" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="J318" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K318" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G319" s="6"/>
+      <c r="J319" s="7"/>
+      <c r="K319" s="9"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G320" s="6"/>
+      <c r="J320" s="7"/>
+      <c r="K320" s="9"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E321" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F321" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="G321" s="6"/>
+      <c r="J321" s="7"/>
+      <c r="K321" s="9"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E322" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F322" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G322" s="6"/>
+      <c r="J322" s="7"/>
+      <c r="K322" s="9"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G323" s="6"/>
+      <c r="J323" s="7"/>
+      <c r="K323" s="9"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G324" s="6"/>
+      <c r="J324" s="7"/>
+      <c r="K324" s="9"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G325" s="6"/>
+      <c r="J325" s="7"/>
+      <c r="K325" s="9"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E326" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F326" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G326" s="6"/>
+      <c r="J326" s="12"/>
+      <c r="K326" s="9"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E327" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F327" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G327" s="6"/>
+      <c r="J327" s="12"/>
+      <c r="K327" s="9"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G328" s="6"/>
+      <c r="J328" s="12"/>
+      <c r="K328" s="9"/>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E329" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>

--- a/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
+++ b/JP (Exclude Game)/Dialog/Drama/kettle.xlsx
@@ -1541,11 +1541,11 @@
     <t xml:space="preserve">...Even so, this eye was my only thread to her. I nursed the faint hope that if I unraveled its secret, I might win her notice once more. By day and night I pursued the riddle of the stone, and in time that fervor drove me to imitation.</t>
   </si>
   <si>
-    <t xml:space="preserve">私はいつしか偉大なる錬金術師と呼ばれるようになっていた。しかし、人の知恵は神の奇跡に遠く及ばない。私が生み出した無数の魔石は、どれ一つとして、この瞳のごとき輝きを持つことはなかった。
+    <t xml:space="preserve">私はいつしか偉大なる錬金術師と呼ばれるようになっていた。しかし、人の知恵は神の奇跡に遠く及ばない。私が生み出した無数の魔石は、どれ一つとして、この瞳のごとき力を持つことはなかった。
 …やがて私は模倣を断念し、偽物の魔石も歴史の塵に埋もれていった。</t>
   </si>
   <si>
-    <t xml:space="preserve">I rose, before I knew it, to be counted among the great alchemists. But human wit does not reach the miracle of the gods. Not one of the countless Stones I forged bore the radiance of this eye. 
+    <t xml:space="preserve">I rose, before I knew it, to be counted among the great alchemists. But human wit does not reach the miracle of the gods. Not one of the countless Stones I forged bore the power of this eye. 
 ...At last I abandoned the mimicry, and the counterfeit Stones sank with the dust of history.</t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2067,14 +2067,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2286,9 +2278,9 @@
   <dimension ref="A1:IX329"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J180" activeCellId="0" sqref="J180"/>
+      <selection pane="bottomLeft" activeCell="N245" activeCellId="0" sqref="N245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6397,7 +6389,7 @@
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M240" s="1"/>
     </row>
-    <row r="241" customFormat="false" ht="82.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G241" s="6" t="s">
         <v>222</v>
       </c>
@@ -6407,7 +6399,7 @@
       <c r="J241" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K241" s="16" t="s">
+      <c r="K241" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -6421,7 +6413,7 @@
       <c r="J242" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K242" s="16" t="s">
+      <c r="K242" s="9" t="s">
         <v>296</v>
       </c>
     </row>
@@ -6449,7 +6441,7 @@
       <c r="J244" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K244" s="16" t="s">
+      <c r="K244" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6460,10 +6452,10 @@
       <c r="I245" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="J245" s="17" t="s">
+      <c r="J245" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K245" s="16" t="s">
+      <c r="K245" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6502,7 +6494,7 @@
       <c r="I248" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="J248" s="17" t="s">
+      <c r="J248" s="7" t="s">
         <v>307</v>
       </c>
       <c r="K248" s="9" t="s">
@@ -6551,7 +6543,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G252" s="6" t="s">
         <v>125</v>
       </c>
@@ -6677,7 +6669,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G261" s="6" t="s">
         <v>222</v>
       </c>
@@ -6698,14 +6690,14 @@
       <c r="I262" s="1" t="n">
         <v>161</v>
       </c>
-      <c r="J262" s="17" t="s">
+      <c r="J262" s="7" t="s">
         <v>333</v>
       </c>
       <c r="K262" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="105.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G263" s="6" t="s">
         <v>222</v>
       </c>
@@ -6955,7 +6947,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G289" s="6"/>
       <c r="I289" s="1" t="n">
         <v>169</v>
@@ -7029,7 +7021,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G296" s="6" t="s">
         <v>47</v>
       </c>
@@ -7187,7 +7179,7 @@
       <c r="E307" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F307" s="18" t="n">
+      <c r="F307" s="16" t="n">
         <v>74</v>
       </c>
       <c r="G307" s="6"/>
@@ -7209,7 +7201,7 @@
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F309" s="18"/>
+      <c r="F309" s="16"/>
       <c r="G309" s="6"/>
       <c r="J309" s="7"/>
       <c r="K309" s="9"/>
@@ -7354,7 +7346,7 @@
       <c r="E321" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F321" s="19" t="s">
+      <c r="F321" s="17" t="s">
         <v>384</v>
       </c>
       <c r="G321" s="6"/>
@@ -7365,7 +7357,7 @@
       <c r="E322" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F322" s="19" t="s">
+      <c r="F322" s="17" t="s">
         <v>385</v>
       </c>
       <c r="G322" s="6"/>
